--- a/Enslaved/Original/NEN/Results/Enslaved_NEN_GPT4o_results.xlsx
+++ b/Enslaved/Original/NEN/Results/Enslaved_NEN_GPT4o_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eziol\Documents\Indp-stdy\graph-rag-iswc-2025\util-scripts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisdavisj/knowledge-conceptualization-graphrag/util-scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45779909-6B91-48D8-9C57-CF37F539D130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666917BA-9A6B-CE48-93EB-D31C7FD5D1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>CQ</t>
   </si>
@@ -48,86 +48,92 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT ?enslavedPerson ?fullName
+SELECT DISTINCT ?enslavedPerson
 WHERE {
-  ?enslavedPerson a Agent ;
-                  hasNameRecord ?nameRecord ;
-                  hasParticipantRoleRecord ?participantRoleRecord .
-  ?nameRecord hasPreferredNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?fullName .
-  ?participantRoleRecord hasParticipantRoleType "Enslaved" ;
-                         hasTemporalExtent ?temporalExtent .
-  ?temporalExtent rdfs:label ?temporalLabel .
-  FILTER(CONTAINS(?temporalLabel, "century X"))
-  ?participantRoleRecord recordedAt ?event .
-  ?event providesParticipantRole ?participantRoleRecord ;
-         rdfs:label ?eventLabel .
-  FILTER(CONTAINS(?eventLabel, "County X"))
+  ?enslavedPerson a :Agent ;
+                  :hasAgentRecord ?agentRecord .
+  ?agentRecord a :AgentRecord ;
+               :hasTemporalExtent ?temporalExtent ;
+               :recordedAt ?event .
+  ?temporalExtent :contains ?date .
+  FILTER (YEAR(?date) &gt;= 1800 &amp;&amp; YEAR(?date) &lt; 1900) # Assuming the 19th century (1800-1899) as century X
+  ?event :hasEventType "Enslavement" ;
+         :providesParticipantRole ?roleRecord .
+  ?roleRecord :hasParticipantRoleType "Enslaved" ;
+              :roleProvidedBy ?event.
+  ?event :recordedAt ?eventLocation .
+  FILTER EXISTS {
+    ?eventLocation :hasName "County X" # Assuming the event location name is the identifier for County X
+  }
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6ef29a48190a733ca317668314e",
+    "id": "batch_req_686d7730b0348190b0af73c14278d994",
     "custom_id": "cq-0",
     "response": {
         "status_code": 200,
-        "request_id": "d3d626f160a41a0fde64711558ae36aa",
+        "request_id": "637ebcc1885d822b012a392d1f46b74c",
         "body": {
-            "id": "chatcmpl-BKT0OnmbjoKXdFAjS1yva8FdlchUB",
+            "id": "chatcmpl-Br8eqVtruma2tzbLxwZPdwXSuFiVG",
             "object": "chat.completion",
-            "created": 1744217756,
+            "created": 1752004364,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?enslavedPerson ?fullName\nWHERE {\n  ?enslavedPerson a Agent ;\n                  hasNameRecord ?nameRecord ;\n                  hasParticipantRoleRecord ?participantRoleRecord .\n\n  ?nameRecord hasPreferredNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?fullName .\n\n  ?participantRoleRecord hasParticipantRoleType \"Enslaved\" ;\n                         hasTemporalExtent ?temporalExtent .\n\n  ?temporalExtent rdfs:label ?temporalLabel .\n  FILTER(CONTAINS(?temporalLabel, \"century X\"))\n\n  ?participantRoleRecord recordedAt ?event .\n  ?event providesParticipantRole ?participantRoleRecord ;\n         rdfs:label ?eventLabel .\n  FILTER(CONTAINS(?eventLabel, \"County X\"))\n}\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT DISTINCT ?enslavedPerson\nWHERE {\n  ?enslavedPerson a :Agent ;\n                  :hasAgentRecord ?agentRecord .\n  ?agentRecord a :AgentRecord ;\n               :hasTemporalExtent ?temporalExtent ;\n               :recordedAt ?event .\n  ?temporalExtent :contains ?date .\n  FILTER (YEAR(?date) &gt;= 1800 &amp;&amp; YEAR(?date) &lt; 1900) # Assuming the 19th century (1800-1899) as century X\n  ?event :hasEventType \"Enslavement\" ;\n         :providesParticipantRole ?roleRecord .\n  ?roleRecord :hasParticipantRoleType \"Enslaved\" ;\n              :roleProvidedBy ?event.\n  ?event :recordedAt ?eventLocation .\n  FILTER EXISTS {\n    ?eventLocation :hasName \"County X\" # Assuming the event location name is the identifier for County X\n  }\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -136,9 +142,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 681,
-                "completion_tokens": 183,
-                "total_tokens": 864,
+                "prompt_tokens": 688,
+                "completion_tokens": 216,
+                "total_tokens": 904,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -151,7 +157,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -172,89 +178,86 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT ?individual ?gender ?ethnicity ?location
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+SELECT ?agent ?gender ?ethnicity ?location
 WHERE {
-  ?individual a Agent .
-  ?individual hasSexRecord ?sexRecord .
-  ?sexRecord hasValue ?gender .
-  ?individual hasOccupationRecord ?occupationRecord .
-  ?occupationRecord hasValue "Enslaved" .
-  OPTIONAL {
-    ?individual hasNameRecord ?nameRecord .
-    ?nameRecord hasNameVariant ?nameVariant .
-    ?nameVariant isDirectlyBasedOn ?ethnicity .
-  }
-  OPTIONAL {
-    ?individual hasParticipantRoleRecord ?participantRoleRecord .
-    ?participantRoleRecord roleProvidedBy ?event .
-    ?event providesParticipantRole ?participantRoleRecord .
-    BIND(?event AS ?location)
-  }
+  ?agentRecord rdf:type &lt;AgentRecord&gt; ;
+               &lt;hasSexRecord&gt; ?sexRecord ;
+               &lt;hasEthnicityRecord&gt; ?ethnicityRecord ;
+               &lt;recordedAt&gt; ?event .
+  ?sexRecord &lt;hasValue&gt; ?gender .
+  ?ethnicityRecord &lt;hasValue&gt; ?ethnicity .
+  ?event &lt;hasEventType&gt; "Plantation" ;
+         &lt;hasName&gt; ?location .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6ef3be881908233bfccfb6ee895",
+    "id": "batch_req_686d77315e5481909d9ba787e9bf6939",
     "custom_id": "cq-1",
     "response": {
         "status_code": 200,
-        "request_id": "4141f39cc77288275aa108a7ec78807d",
+        "request_id": "685ec543f61d0b41e193ac04e6d0cfb2",
         "body": {
-            "id": "chatcmpl-BKT0OrupPCjvBKmnpGQlctuZjkH4l",
+            "id": "chatcmpl-Br8erBd4jgbEPjD8tv0XuD1mDTlyO",
             "object": "chat.completion",
-            "created": 1744217756,
+            "created": 1752004365,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?individual ?gender ?ethnicity ?location\nWHERE {\n  ?individual a Agent .\n  ?individual hasSexRecord ?sexRecord .\n  ?sexRecord hasValue ?gender .\n  \n  ?individual hasOccupationRecord ?occupationRecord .\n  ?occupationRecord hasValue \"Enslaved\" .\n  \n  OPTIONAL {\n    ?individual hasNameRecord ?nameRecord .\n    ?nameRecord hasNameVariant ?nameVariant .\n    ?nameVariant isDirectlyBasedOn ?ethnicity .\n  }\n  \n  OPTIONAL {\n    ?individual hasParticipantRoleRecord ?participantRoleRecord .\n    ?participantRoleRecord roleProvidedBy ?event .\n    ?event providesParticipantRole ?participantRoleRecord .\n    BIND(?event AS ?location)\n  }\n}\n```",
+                        "content": "```sparql\nPREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\n\nSELECT ?agent ?gender ?ethnicity ?location\nWHERE {\n  ?agentRecord rdf:type &lt;AgentRecord&gt; ;\n               &lt;hasSexRecord&gt; ?sexRecord ;\n               &lt;hasEthnicityRecord&gt; ?ethnicityRecord ;\n               &lt;recordedAt&gt; ?event .\n\n  ?sexRecord &lt;hasValue&gt; ?gender .\n  ?ethnicityRecord &lt;hasValue&gt; ?ethnicity .\n  \n  ?event &lt;hasEventType&gt; \"Plantation\" ;\n         &lt;hasName&gt; ?location .\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -263,9 +266,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 693,
-                "completion_tokens": 174,
-                "total_tokens": 867,
+                "prompt_tokens": 700,
+                "completion_tokens": 153,
+                "total_tokens": 853,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -278,7 +281,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -299,79 +302,86 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX : &lt;http://example.org/schema#&gt;
 SELECT ?place ?year ?populationCount
 WHERE {
-  ?event :hasTemporalExtent ?temporalExtent .
-  ?temporalExtent :hasYear ?year .
-  ?event :recordedAt ?place .
-  ?event :providesPopulationCount ?populationCount .
-  FILTER(?populationCount &gt; 0)
+  ?agentRecord a &lt;http://example.org/AgentRecord&gt; ;
+               &lt;http://example.org/hasTemporalExtent&gt; ?temporalExtent ;
+               &lt;http://example.org/recordedAt&gt; ?event .
+  ?event &lt;http://example.org/hasEventType&gt; "Enslavement" ;
+         &lt;http://example.org/hasName&gt; ?place .
+  ?temporalExtent &lt;http://example.org/contains&gt; ?date .
+  BIND(year(?date) AS ?year)
+  ?agentRecord &lt;http://example.org/hasAgentRecord&gt; ?populationCount .
 }
+ORDER BY ?place ?year
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6ef4df4819090ae69114d64baf7",
+    "id": "batch_req_686d7732398081908deb798eb557e72f",
     "custom_id": "cq-2",
     "response": {
         "status_code": 200,
-        "request_id": "09ee3f2bfa9372b9bf03db7c5415b512",
+        "request_id": "c4f8a02d10ecbee70de05ad5223b0a9e",
         "body": {
-            "id": "chatcmpl-BKT15DTPhmCOlH5RYltUjWTU6if4B",
+            "id": "chatcmpl-Br8etN04p64UenyzJVvNbNXmqEtMq",
             "object": "chat.completion",
-            "created": 1744217799,
+            "created": 1752004367,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT ?place ?year ?populationCount\nWHERE {\n  ?event :hasTemporalExtent ?temporalExtent .\n  ?temporalExtent :hasYear ?year .\n  ?event :recordedAt ?place .\n  ?event :providesPopulationCount ?populationCount .\n  FILTER(?populationCount &gt; 0)\n}\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?place ?year ?populationCount\nWHERE {\n  ?agentRecord a &lt;http://example.org/AgentRecord&gt; ;\n               &lt;http://example.org/hasTemporalExtent&gt; ?temporalExtent ;\n               &lt;http://example.org/recordedAt&gt; ?event .\n  ?event &lt;http://example.org/hasEventType&gt; \"Enslavement\" ;\n         &lt;http://example.org/hasName&gt; ?place .\n  ?temporalExtent &lt;http://example.org/contains&gt; ?date .\n  BIND(year(?date) AS ?year)\n  ?agentRecord &lt;http://example.org/hasAgentRecord&gt; ?populationCount .\n}\nORDER BY ?place ?year\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -380,9 +390,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 682,
-                "completion_tokens": 99,
-                "total_tokens": 781,
+                "prompt_tokens": 689,
+                "completion_tokens": 164,
+                "total_tokens": 853,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -395,7 +405,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_b7faba9ef5"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -416,75 +426,80 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
-PREFIX : &lt;http://example.org/schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 SELECT ?agent ?literacyStatus
 WHERE {
-  ?agent :hasLiteracyStatusRecord ?literacyStatusRecord .
-  ?literacyStatusRecord :hasValue ?literacyStatus .
+  ?agentRecord a &lt;http://example.org/schema/AgentRecord&gt; ;
+               &lt;http://example.org/schema/hasLiteracyStatus&gt; ?literacyStatus .
+  ?agent &lt;http://example.org/schema/hasAgentRecord&gt; ?agentRecord .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6ef5f488190840aac7e3a53c363",
+    "id": "batch_req_686d7732dd4c819089d4eb4d8cdf2ffc",
     "custom_id": "cq-3",
     "response": {
         "status_code": 200,
-        "request_id": "7519d58c81aeca31995dfce0bba7f667",
+        "request_id": "5909fe6374909465c51c41b7c606efe1",
         "body": {
-            "id": "chatcmpl-BKT0RrUFrFGm3LPUAtWp9e30V1nfV",
+            "id": "chatcmpl-Br8etwAwEGlTkMKUJoUBM5h9Vuevv",
             "object": "chat.completion",
-            "created": 1744217759,
+            "created": 1752004367,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT ?agent ?literacyStatus\nWHERE {\n  ?agent :hasLiteracyStatusRecord ?literacyStatusRecord .\n  ?literacyStatusRecord :hasValue ?literacyStatus .\n}\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nSELECT ?agent ?literacyStatus\nWHERE {\n  ?agentRecord a &lt;http://example.org/schema/AgentRecord&gt; ;\n               &lt;http://example.org/schema/hasLiteracyStatus&gt; ?literacyStatus .\n  ?agent &lt;http://example.org/schema/hasAgentRecord&gt; ?agentRecord .\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -493,9 +508,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 678,
-                "completion_tokens": 56,
-                "total_tokens": 734,
+                "prompt_tokens": 685,
+                "completion_tokens": 85,
+                "total_tokens": 770,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -508,7 +523,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -529,78 +544,90 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
+PREFIX : &lt;http://example.org/schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT DISTINCT ?agent ?geographicalPlace ?relationship
+SELECT DISTINCT ?place ?relationship ?agentName
 WHERE {
-  ?agent a Agent .
-  ?agent hasParticipantRoleRecord ?participantRoleRecord .
-  ?participantRoleRecord roleProvidedBy ?event .
-  ?event recordedAt ?geographicalPlace .
-  ?participantRoleRecord hasParticipantRoleType ?relationship .
+  ?agentRecord a :AgentRecord ;
+               :hasName ?agentName ;
+               :hasTemporalExtent ?temporalExtent .
+  ?temporalExtent :contains ?date .
+  ?event :recordedAt ?agentRecord ;
+         :hasEventType ?eventType ;
+         :hasTemporalExtent ?eventTemporalExtent .
+  ?eventTemporalExtent :contains ?eventDate .
+  ?event :providesParticipantRole ?participantRoleRecord .
+  ?participantRoleRecord :hasParticipantRoleType ?relationship ;
+                         :roleProvidedBy ?event .
+  ?event :hasName ?place .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6ef72148190b0e7403c3372a568",
+    "id": "batch_req_686d7733b10c81908bd770503849dbe8",
     "custom_id": "cq-4",
     "response": {
         "status_code": 200,
-        "request_id": "77e0902a29ef9a2edcafe54519da189a",
+        "request_id": "7f191f87bb7f163c9cd79a0fdea14b5e",
         "body": {
-            "id": "chatcmpl-BKT0PtM9mEPPEypoNXMwyEhZboeWV",
+            "id": "chatcmpl-Br8et60jenwFUeVszS2il3AgMJGVE",
             "object": "chat.completion",
-            "created": 1744217757,
+            "created": 1752004367,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT DISTINCT ?agent ?geographicalPlace ?relationship\nWHERE {\n  ?agent a Agent .\n  ?agent hasParticipantRoleRecord ?participantRoleRecord .\n  ?participantRoleRecord roleProvidedBy ?event .\n  ?event recordedAt ?geographicalPlace .\n  ?participantRoleRecord hasParticipantRoleType ?relationship .\n}\n```",
+                        "content": "```sparql\nPREFIX : &lt;http://example.org/schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT DISTINCT ?place ?relationship ?agentName\nWHERE {\n  ?agentRecord a :AgentRecord ;\n               :hasName ?agentName ;\n               :hasTemporalExtent ?temporalExtent .\n  ?temporalExtent :contains ?date .\n  ?event :recordedAt ?agentRecord ;\n         :hasEventType ?eventType ;\n         :hasTemporalExtent ?eventTemporalExtent .\n  ?eventTemporalExtent :contains ?eventDate .\n  ?event :providesParticipantRole ?participantRoleRecord .\n  ?participantRoleRecord :hasParticipantRoleType ?relationship ;\n                         :roleProvidedBy ?event .\n  ?event :hasName ?place .\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -609,9 +636,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 684,
-                "completion_tokens": 88,
-                "total_tokens": 772,
+                "prompt_tokens": 691,
+                "completion_tokens": 166,
+                "total_tokens": 857,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -624,7 +651,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -645,85 +672,87 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT DISTINCT ?firstname
+PREFIX : &lt;http://example.org/schema/&gt;
+SELECT DISTINCT ?name
 WHERE {
-  ?agent a &lt;Agent&gt; ;
-         hasNameRecord ?nameRecord ;
-         hasAgeRecord ?ageRecord ;
-         hasParticipantRoleRecord ?roleRecord .
-  ?nameRecord hasNameVariant ?nameVariant .
-  ?nameVariant hasFirstnameAsString ?firstname .
-  ?ageRecord hasValue "child"^^xsd:string .
-  ?ageRecord hasTemporalExtent ?temporalExtent .
-  ?temporalExtent &lt;http://www.w3.org/2006/time#hasBeginning&gt; ?begin ;
-                  &lt;http://www.w3.org/2006/time#hasEnd&gt; ?end .
-  FILTER (?begin &gt;= "1775-04-19"^^xsd:date &amp;&amp; ?end &lt;= "1783-09-03"^^xsd:date)
-  ?roleRecord hasParticipantRoleType "enslaved"^^xsd:string .
+  ?agent :hasAgentRecord ?ar .
+  ?ar a :AgeRecord ;
+      :hasAgeValue ?age .
+  FILTER (?age &lt; 18)  # Assuming age &lt; 18 for children
+  ?ar :hasTemporalExtent ?te .
+  ?te :startsAt ?start ;
+      :endsAt ?end .
+  FILTER (?start &gt;= "1775-04-19"^^xsd:date &amp;&amp; ?end &lt;= "1783-09-03"^^xsd:date)  # Revolutionary War dates
+  ?agent :hasName ?name .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6ef84608190afc6394885d76884",
+    "id": "batch_req_686d7734521081909eb30e4495d309fc",
     "custom_id": "cq-5",
     "response": {
         "status_code": 200,
-        "request_id": "074a5001cdf343b810266467c784fcda",
+        "request_id": "1346f44f9bb399a670dbbec4c0fd6abe",
         "body": {
-            "id": "chatcmpl-BKT0PzeW26a4CM35DY57gjt5J5tvs",
+            "id": "chatcmpl-Br8euzEIe2IkR6sNaK2xr3fqdW9WO",
             "object": "chat.completion",
-            "created": 1744217757,
+            "created": 1752004368,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT DISTINCT ?firstname\nWHERE {\n  ?agent a &lt;Agent&gt; ;\n         hasNameRecord ?nameRecord ;\n         hasAgeRecord ?ageRecord ;\n         hasParticipantRoleRecord ?roleRecord .\n  \n  ?nameRecord hasNameVariant ?nameVariant .\n  ?nameVariant hasFirstnameAsString ?firstname .\n  \n  ?ageRecord hasValue \"child\"^^xsd:string .\n  ?ageRecord hasTemporalExtent ?temporalExtent .\n  ?temporalExtent &lt;http://www.w3.org/2006/time#hasBeginning&gt; ?begin ;\n                  &lt;http://www.w3.org/2006/time#hasEnd&gt; ?end .\n  \n  FILTER (?begin &gt;= \"1775-04-19\"^^xsd:date &amp;&amp; ?end &lt;= \"1783-09-03\"^^xsd:date)\n  \n  ?roleRecord hasParticipantRoleType \"enslaved\"^^xsd:string .\n}\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX : &lt;http://example.org/schema/&gt;\n\nSELECT DISTINCT ?name\nWHERE {\n  ?agent :hasAgentRecord ?ar .\n  ?ar a :AgeRecord ;\n      :hasAgeValue ?age .\n  FILTER (?age &lt; 18)  # Assuming age &lt; 18 for children\n  ?ar :hasTemporalExtent ?te .\n  ?te :startsAt ?start ;\n      :endsAt ?end .\n  FILTER (?start &gt;= \"1775-04-19\"^^xsd:date &amp;&amp; ?end &lt;= \"1783-09-03\"^^xsd:date)  # Revolutionary War dates\n\n  ?agent :hasName ?name .\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -732,9 +761,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 682,
-                "completion_tokens": 212,
-                "total_tokens": 894,
+                "prompt_tokens": 689,
+                "completion_tokens": 160,
+                "total_tokens": 849,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -747,7 +776,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -768,85 +797,83 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX : &lt;http://example.org/schema#&gt;
-SELECT ?enslavedIndividualName ?enslaverName ?location
+SELECT ?enslavedIndividual ?enslaver ?location
 WHERE {
-  ?enslavedRelationshipRecord a :InterAgentRelationshipRecord ;
-                             :isRelationshipFrom ?enslaver ;
-                             :isRelationshipTo ?enslavedIndividual ;
-                             :hasInterAgentRelationshipType "enslaved" .
-  ?enslaver :hasNameRecord ?enslaverNameRecord .
-  ?enslaverNameRecord :hasPreferredNameVariant ?enslaverNameVariant .
-  ?enslaverNameVariant :fullNameAsString ?enslaverName .
-  ?enslavedIndividual :hasNameRecord ?enslavedNameRecord .
-  ?enslavedNameRecord :hasPreferredNameVariant ?enslavedNameVariant .
-  ?enslavedNameVariant :fullNameAsString ?enslavedIndividualName .
-  ?enslavedRelationshipRecord :recordedAt ?event .
-  ?event :recordedAtLocation ?location .
+  ?enslaverRel :hasInterAgentRelationshipType "enslaver" ;
+                :isRelationshipFrom ?enslaver ;
+                :isRelationshipTo ?enslavedIndividual .
+  ?enslavedIndividual :hasAgentRecord ?enslavedRecord .
+  ?enslavedRecord :recordedAt ?event .
+  ?event :hasName ?location .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6ef934c8190b39e2df7ddb69402",
+    "id": "batch_req_686d7734f5648190bf0890e9a04e22e5",
     "custom_id": "cq-6",
     "response": {
         "status_code": 200,
-        "request_id": "ab0e4121e66bd6c68076017ba8095883",
+        "request_id": "50f299b74674b88d8dd0a3a5cf1baaa9",
         "body": {
-            "id": "chatcmpl-BKT0h23sSbAo7igrmKoIUKrqaLvaI",
+            "id": "chatcmpl-Br8eu9ORKGzcUOGIQYaNv8QHZX5z6",
             "object": "chat.completion",
-            "created": 1744217775,
+            "created": 1752004368,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT ?enslavedIndividualName ?enslaverName ?location\nWHERE {\n  ?enslavedRelationshipRecord a :InterAgentRelationshipRecord ;\n                             :isRelationshipFrom ?enslaver ;\n                             :isRelationshipTo ?enslavedIndividual ;\n                             :hasInterAgentRelationshipType \"enslaved\" .\n\n  ?enslaver :hasNameRecord ?enslaverNameRecord .\n  ?enslaverNameRecord :hasPreferredNameVariant ?enslaverNameVariant .\n  ?enslaverNameVariant :fullNameAsString ?enslaverName .\n\n  ?enslavedIndividual :hasNameRecord ?enslavedNameRecord .\n  ?enslavedNameRecord :hasPreferredNameVariant ?enslavedNameVariant .\n  ?enslavedNameVariant :fullNameAsString ?enslavedIndividualName .\n\n  ?enslavedRelationshipRecord :recordedAt ?event .\n  ?event :recordedAtLocation ?location .\n}\n```",
+                        "content": "```sparql\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT ?enslavedIndividual ?enslaver ?location\nWHERE {\n  ?enslaverRel :hasInterAgentRelationshipType \"enslaver\" ;\n                :isRelationshipFrom ?enslaver ;\n                :isRelationshipTo ?enslavedIndividual .\n  ?enslavedIndividual :hasAgentRecord ?enslavedRecord .\n  ?enslavedRecord :recordedAt ?event .\n  ?event :hasName ?location .\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -855,9 +882,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 682,
-                "completion_tokens": 215,
-                "total_tokens": 897,
+                "prompt_tokens": 689,
+                "completion_tokens": 108,
+                "total_tokens": 797,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -870,7 +897,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -891,81 +918,86 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX : &lt;http://example.org/schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 SELECT DISTINCT ?childName
 WHERE {
-  ?enslavedAgent :hasParticipantRoleRecord ?roleRecord .
-  ?roleRecord :hasParticipantRoleType "Enslaved" .
-  ?enslavedAgent :hasInterAgentRelationshipRecord ?relationshipRecord .
-  ?relationshipRecord :isRelationshipTo ?child .
-  ?relationshipRecord :hasInterAgentRelationshipType "Child" .
-  ?child :hasNameRecord ?nameRecord .
-  ?nameRecord :hasPreferredNameVariant ?nameVariant .
-  ?nameVariant :fullNameAsString ?childName .
+  ?relationshipRecord a :InterAgentRelationshipRecord ;
+                      :hasInterAgentRelationshipType "child" ;
+                      :isRelationshipTo ?child ;
+                      :isRelationshipFrom ?enslavedIndividual .
+  ?enslavedIndividual a :Agent ;
+                      :hasOccupationRecord ?occupationRecord .
+  ?occupationRecord :hasValue "enslaved" .
+  ?child :hasName ?childName .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6efa4008190b219247ff68581f0",
+    "id": "batch_req_686d7735a1608190a4f3f51f1616faa0",
     "custom_id": "cq-7",
     "response": {
         "status_code": 200,
-        "request_id": "54a3e2b3c00972f1cd693b89f1f83462",
+        "request_id": "29ed6c645cd777832f70b3771f9f842a",
         "body": {
-            "id": "chatcmpl-BKT0bDHrFOZguSEkd4B9cWKqvvUeY",
+            "id": "chatcmpl-Br8eu857L9w3v17soxCYuicf7o7Em",
             "object": "chat.completion",
-            "created": 1744217769,
+            "created": 1752004368,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT DISTINCT ?childName\nWHERE {\n  ?enslavedAgent :hasParticipantRoleRecord ?roleRecord .\n  ?roleRecord :hasParticipantRoleType \"Enslaved\" .\n\n  ?enslavedAgent :hasInterAgentRelationshipRecord ?relationshipRecord .\n  ?relationshipRecord :isRelationshipTo ?child .\n  ?relationshipRecord :hasInterAgentRelationshipType \"Child\" .\n\n  ?child :hasNameRecord ?nameRecord .\n  ?nameRecord :hasPreferredNameVariant ?nameVariant .\n  ?nameVariant :fullNameAsString ?childName .\n}\n```",
+                        "content": "```sparql\nPREFIX : &lt;http://example.org/schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT DISTINCT ?childName\nWHERE {\n  ?relationshipRecord a :InterAgentRelationshipRecord ;\n                      :hasInterAgentRelationshipType \"child\" ;\n                      :isRelationshipTo ?child ;\n                      :isRelationshipFrom ?enslavedIndividual .\n  ?enslavedIndividual a :Agent ;\n                      :hasOccupationRecord ?occupationRecord .\n  ?occupationRecord :hasValue \"enslaved\" .\n  ?child :hasName ?childName .\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -974,9 +1006,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 677,
-                "completion_tokens": 133,
-                "total_tokens": 810,
+                "prompt_tokens": 684,
+                "completion_tokens": 124,
+                "total_tokens": 808,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -989,7 +1021,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -1010,86 +1042,86 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT DISTINCT ?agent ?nameVariant ?fullName ?surname ?firstname ?event ?temporalExtent
+PREFIX ex: &lt;http://example.org/schema#&gt;
+SELECT ?individual ?record ?event ?location ?start ?end
 WHERE {
-  ?agent a Agent .
-  ?agent hasParticipantRoleRecord ?participantRoleRecord .
-  ?participantRoleRecord hasParticipantRoleType ?roleType .
-  FILTER(?roleType IN ("enslaved", "formerly enslaved")) .
-  ?agent hasNameRecord ?nameRecord .
-  ?nameRecord hasNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?fullName .
-  ?nameVariant hasSurnameAsString ?surname .
-  ?nameVariant hasFirstnameAsString ?firstname .
-  ?nameVariant recordedAt ?event .
-  ?nameVariant hasTemporalExtent ?temporalExtent .
-  ?temporalExtent a TemporalExtent .
-  ?event a Event .
+  ?individual ex:hasAgentRecord ?record .
+  ?record ex:recordedAt ?event .
+  ?record a ex:OccupationRecord ;
+          ex:hasValue ?occupation .
+  FILTER(?occupation IN ("enslaved", "formerly enslaved")).
+  ?event ex:hasName ?location .
+  ?event ex:hasTemporalExtent ?temporalExtent .
+  ?temporalExtent ex:startsAt ?start ;
+                  ex:endsAt ?end .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6efb4c08190b41b1ee049baa3bf",
+    "id": "batch_req_686d773643f48190a957aa0636e9bae8",
     "custom_id": "cq-8",
     "response": {
         "status_code": 200,
-        "request_id": "374279ac072df8fb1df0f02ba03c248c",
+        "request_id": "d8b68bb1685480ce71ed22b51fdcfd1b",
         "body": {
-            "id": "chatcmpl-BKT0owP99ZY3mtsa7MwqpSa91jQ8W",
+            "id": "chatcmpl-Br8ev7I2w4TiLrAOj1HH4K9VdHYf2",
             "object": "chat.completion",
-            "created": 1744217782,
+            "created": 1752004369,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT DISTINCT ?agent ?nameVariant ?fullName ?surname ?firstname ?event ?temporalExtent\nWHERE {\n  ?agent a Agent .\n  ?agent hasParticipantRoleRecord ?participantRoleRecord .\n  ?participantRoleRecord hasParticipantRoleType ?roleType .\n  FILTER(?roleType IN (\"enslaved\", \"formerly enslaved\")) .\n\n  ?agent hasNameRecord ?nameRecord .\n  ?nameRecord hasNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?fullName .\n  ?nameVariant hasSurnameAsString ?surname .\n  ?nameVariant hasFirstnameAsString ?firstname .\n\n  ?nameVariant recordedAt ?event .\n  ?nameVariant hasTemporalExtent ?temporalExtent .\n\n  ?temporalExtent a TemporalExtent .\n  ?event a Event .\n}\n```",
+                        "content": "```sparql\nPREFIX ex: &lt;http://example.org/schema#&gt;\n\nSELECT ?individual ?record ?event ?location ?start ?end\nWHERE {\n  ?individual ex:hasAgentRecord ?record .\n  ?record ex:recordedAt ?event .\n  ?record a ex:OccupationRecord ;\n          ex:hasValue ?occupation .\n  FILTER(?occupation IN (\"enslaved\", \"formerly enslaved\")).\n  ?event ex:hasName ?location .\n  ?event ex:hasTemporalExtent ?temporalExtent .\n  ?temporalExtent ex:startsAt ?start ;\n                  ex:endsAt ?end .\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -1098,9 +1130,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 688,
-                "completion_tokens": 186,
-                "total_tokens": 874,
+                "prompt_tokens": 695,
+                "completion_tokens": 131,
+                "total_tokens": 826,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -1113,7 +1145,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -1134,89 +1166,93 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t xml:space="preserve">```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT DISTINCT ?childName ?location ?timePeriod
+SELECT DISTINCT ?childName ?locationName ?eventDate
 WHERE {
-  ?agent a ?agentType ;
-         hasNameRecord ?nameRecord ;
-         hasAgeRecord ?ageRecord ;
-         hasParticipantRoleRecord ?roleRecord .
-  ?nameRecord hasPreferredNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?childName .
-  ?ageRecord hasValue "Child"^^xsd:string ;
-             hasTemporalExtent ?temporalExtent .
-  ?roleRecord hasParticipantRoleType "Enslaved"^^xsd:string ;
-              recordedAt ?event .
-  ?event rdfs:label ?location ;
+  ?agent a Agent ;
+         hasAgentRecord ?agentRecord .
+  ?agentRecord a AgeRecord ;
+               hasAgeValue ?ageValue ;
+               temporalExtentContains ?eventDate ;
+               recordedAt ?event .
+  FILTER(?ageValue &lt; 18)  # Assuming children are under 18
+  ?event hasEventType "Enslavement" ;
+         hasName ?locationName ;
          hasTemporalExtent ?temporalExtent .
-  ?temporalExtent time:hasBeginning ?startTime ;
-                  time:hasEnd ?endTime .
-  BIND(CONCAT(STR(?startTime), " to ", STR(?endTime)) AS ?timePeriod)
+  ?temporalExtent contains ?eventDate .
+  ?agent hasName ?childName .
+  ?temporalExtent occursAfter "YYYY-MM-DD"^^xsd:date ;  # Replace with specific start date
+                  occursBefore "YYYY-MM-DD"^^xsd:date . # Replace with specific end date
 }
+ORDER BY ?childName
 ```
 </t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6efc7b4819084a15c2e62a0b9c7",
+    "id": "batch_req_686d7736e9b08190b22bc01f5deadf1a",
     "custom_id": "cq-9",
     "response": {
         "status_code": 200,
-        "request_id": "fe55b422cad46dd205ae7999dbaaf5f3",
+        "request_id": "e0a709de7b8b278b0206dd7459ce4460",
         "body": {
-            "id": "chatcmpl-BKT0QFUhbSXDudysfdj8L1jejrsoM",
+            "id": "chatcmpl-Br8ew9uVaDPUlUulyQwW4d3LESsZf",
             "object": "chat.completion",
-            "created": 1744217758,
+            "created": 1752004370,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT DISTINCT ?childName ?location ?timePeriod\nWHERE {\n  ?agent a ?agentType ;\n         hasNameRecord ?nameRecord ;\n         hasAgeRecord ?ageRecord ;\n         hasParticipantRoleRecord ?roleRecord .\n  \n  ?nameRecord hasPreferredNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?childName .\n  \n  ?ageRecord hasValue \"Child\"^^xsd:string ;\n             hasTemporalExtent ?temporalExtent .\n  \n  ?roleRecord hasParticipantRoleType \"Enslaved\"^^xsd:string ;\n              recordedAt ?event .\n  \n  ?event rdfs:label ?location ;\n         hasTemporalExtent ?temporalExtent .\n  \n  ?temporalExtent time:hasBeginning ?startTime ;\n                  time:hasEnd ?endTime .\n  \n  BIND(CONCAT(STR(?startTime), \" to \", STR(?endTime)) AS ?timePeriod)\n}\n```\n",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT DISTINCT ?childName ?locationName ?eventDate\nWHERE {\n  ?agent a Agent ;\n         hasAgentRecord ?agentRecord .\n  ?agentRecord a AgeRecord ;\n               hasAgeValue ?ageValue ;\n               temporalExtentContains ?eventDate ;\n               recordedAt ?event .\n  FILTER(?ageValue &lt; 18)  # Assuming children are under 18\n  ?event hasEventType \"Enslavement\" ;\n         hasName ?locationName ;\n         hasTemporalExtent ?temporalExtent .\n  ?temporalExtent contains ?eventDate .\n\n  ?agent hasName ?childName .\n  ?temporalExtent occursAfter \"YYYY-MM-DD\"^^xsd:date ;  # Replace with specific start date\n                  occursBefore \"YYYY-MM-DD\"^^xsd:date . # Replace with specific end date\n}\nORDER BY ?childName\n```\n",
                         "refusal": null,
                         "annotations": []
                     },
@@ -1225,9 +1261,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 681,
-                "completion_tokens": 213,
-                "total_tokens": 894,
+                "prompt_tokens": 688,
+                "completion_tokens": 201,
+                "total_tokens": 889,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -1240,7 +1276,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -1261,87 +1297,89 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX : &lt;http://example.org/schema/&gt;
-SELECT ?enslavedPerson (COUNT(?enslavedPerson) AS ?count)
+SELECT ?enslavedPersonName (COUNT(?enslavedPerson) AS ?count)
 WHERE {
-  ?interAgentRelRecord :isRelationshipFrom ?owner ;
-                       :isRelationshipTo ?enslavedPerson ;
-                       :hasInterAgentRelationshipType "enslaved" ;
-                       :hasTemporalExtent ?temporalExtent ;
-                       :recordedAt ?event .
-  ?event :providesParticipantRole ?participantRoleRecord .
-  ?participantRoleRecord :roleProvidedBy ?specifiedEvent .
-  ?temporalExtent :startsAt ?startTime ;
-                  :endsAt ?endTime .
-  FILTER(?specifiedEvent = &lt;http://example.org/specifiedEvent&gt; &amp;&amp; 
-         ?startTime &lt;= "specific_time"^^xsd:dateTime &amp;&amp; 
-         ?endTime &gt;= "specific_time"^^xsd:dateTime)
+  ?relationshipRecord a &lt;InterAgentRelationshipRecord&gt; ;
+                      &lt;hasInterAgentRelationshipType&gt; "enslavement" ;
+                      &lt;isRelationshipFrom&gt; ?owner ;
+                      &lt;isRelationshipTo&gt; ?enslavedPerson .
+  ?owner &lt;hasName&gt; ?ownerName .
+  ?enslavedPerson &lt;hasName&gt; ?enslavedPersonName .
+  ?relationshipRecord &lt;hasTemporalExtent&gt; ?temporalExtent .
+  ?temporalExtent &lt;contains&gt; ?date .
+  FILTER(?date &gt;= "start_date"^^xsd:date &amp;&amp; ?date &lt;= "end_date"^^xsd:date)
+  ?relationshipRecord &lt;recordedAt&gt; ?event .
+  ?event &lt;hasName&gt; "specific_place_name" .
 }
-GROUP BY ?enslavedPerson
+GROUP BY ?enslavedPersonName
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6efd878819097f05dd6eedb2c2e",
+    "id": "batch_req_686d7737944c8190ae2f42d5627537b9",
     "custom_id": "cq-10",
     "response": {
         "status_code": 200,
-        "request_id": "09dea00c471bbb000af16364b23a08b4",
+        "request_id": "9e82b6c12023cdb247614f46ebae9739",
         "body": {
-            "id": "chatcmpl-BKT0XbVnTF8iDnzHw8hIAByjSzlQS",
+            "id": "chatcmpl-Br8ew0YyFGii1hizqGr87aekJRTXI",
             "object": "chat.completion",
-            "created": 1744217765,
+            "created": 1752004370,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX : &lt;http://example.org/schema/&gt;\n\nSELECT ?enslavedPerson (COUNT(?enslavedPerson) AS ?count)\nWHERE {\n  ?interAgentRelRecord :isRelationshipFrom ?owner ;\n                       :isRelationshipTo ?enslavedPerson ;\n                       :hasInterAgentRelationshipType \"enslaved\" ;\n                       :hasTemporalExtent ?temporalExtent ;\n                       :recordedAt ?event .\n  ?event :providesParticipantRole ?participantRoleRecord .\n  ?participantRoleRecord :roleProvidedBy ?specifiedEvent .\n  ?temporalExtent :startsAt ?startTime ;\n                  :endsAt ?endTime .\n  FILTER(?specifiedEvent = &lt;http://example.org/specifiedEvent&gt; &amp;&amp; \n         ?startTime &lt;= \"specific_time\"^^xsd:dateTime &amp;&amp; \n         ?endTime &gt;= \"specific_time\"^^xsd:dateTime)\n}\nGROUP BY ?enslavedPerson\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?enslavedPersonName (COUNT(?enslavedPerson) AS ?count)\nWHERE {\n  ?relationshipRecord a &lt;InterAgentRelationshipRecord&gt; ;\n                      &lt;hasInterAgentRelationshipType&gt; \"enslavement\" ;\n                      &lt;isRelationshipFrom&gt; ?owner ;\n                      &lt;isRelationshipTo&gt; ?enslavedPerson .\n                      \n  ?owner &lt;hasName&gt; ?ownerName .\n  ?enslavedPerson &lt;hasName&gt; ?enslavedPersonName .\n  \n  ?relationshipRecord &lt;hasTemporalExtent&gt; ?temporalExtent .\n  ?temporalExtent &lt;contains&gt; ?date .\n  \n  FILTER(?date &gt;= \"start_date\"^^xsd:date &amp;&amp; ?date &lt;= \"end_date\"^^xsd:date)\n  \n  ?relationshipRecord &lt;recordedAt&gt; ?event .\n  ?event &lt;hasName&gt; \"specific_place_name\" .\n}\nGROUP BY ?enslavedPersonName\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -1350,9 +1388,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 691,
-                "completion_tokens": 212,
-                "total_tokens": 903,
+                "prompt_tokens": 698,
+                "completion_tokens": 210,
+                "total_tokens": 908,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -1365,7 +1403,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -1386,83 +1424,87 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t>```sparql
+    <t xml:space="preserve">```sparql
+PREFIX ex: &lt;http://example.org/schema#&gt;
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT ?fullName ?role
+SELECT ?enslavedIndividualName ?roleName
 WHERE {
-  ?agent a Agent ;
-         hasNameRecord ?nameRecord ;
-         hasParticipantRoleRecord ?participantRoleRecord .
-  ?nameRecord hasPreferredNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?fullName .
-  ?participantRoleRecord hasParticipantRoleType ?role ;
-                         roleProvidedBy ?event .
-  ?event providesParticipantRole ?participantRoleRecord ;
-         a ConstructionProject .
-  FILTER regex(?role, "construction")
+  ?enslavedIndividual ex:hasAgentRecord ?agentRecord .
+  ?agentRecord ex:hasName ?enslavedIndividualName .
+  ?agentRecord a ex:OccupationRecord .
+  ?constructionEvent ex:hasEventType "Construction"^^xsd:string .
+  ?constructionEvent ex:hasName "state capitol"^^xsd:string .
+  ?constructionEvent ex:providesParticipantRole ?participantRoleRecord .
+  ?participantRoleRecord ex:roleProvidedBy ?constructionEvent .
+  ?participantRoleRecord ex:hasParticipantRoleType ?roleName .
 }
-```</t>
+```
+</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6efe964819090cde835d4f2238e",
+    "id": "batch_req_686d773834d08190a0b763b51d84af6b",
     "custom_id": "cq-11",
     "response": {
         "status_code": 200,
-        "request_id": "28e8c166ff4a63681ac6cad487aaf1cf",
+        "request_id": "51f331b0bdff3d163c964bc28809b880",
         "body": {
-            "id": "chatcmpl-BKT0R4qRDbXS29wKlm1jFdLGLHw3d",
+            "id": "chatcmpl-Br8ewgA3UCHh43HC9MVQygutDska8",
             "object": "chat.completion",
-            "created": 1744217759,
+            "created": 1752004370,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?fullName ?role\nWHERE {\n  ?agent a Agent ;\n         hasNameRecord ?nameRecord ;\n         hasParticipantRoleRecord ?participantRoleRecord .\n\n  ?nameRecord hasPreferredNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?fullName .\n\n  ?participantRoleRecord hasParticipantRoleType ?role ;\n                         roleProvidedBy ?event .\n\n  ?event providesParticipantRole ?participantRoleRecord ;\n         a ConstructionProject .\n\n  FILTER regex(?role, \"construction\")\n}\n```",
+                        "content": "```sparql\nPREFIX ex: &lt;http://example.org/schema#&gt;\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?enslavedIndividualName ?roleName\nWHERE {\n  ?enslavedIndividual ex:hasAgentRecord ?agentRecord .\n  ?agentRecord ex:hasName ?enslavedIndividualName .\n  ?agentRecord a ex:OccupationRecord .\n  \n  ?constructionEvent ex:hasEventType \"Construction\"^^xsd:string .\n  ?constructionEvent ex:hasName \"state capitol\"^^xsd:string .\n  ?constructionEvent ex:providesParticipantRole ?participantRoleRecord .\n  \n  ?participantRoleRecord ex:roleProvidedBy ?constructionEvent .\n  ?participantRoleRecord ex:hasParticipantRoleType ?roleName .\n}\n```\n",
                         "refusal": null,
                         "annotations": []
                     },
@@ -1471,9 +1513,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 693,
-                "completion_tokens": 125,
-                "total_tokens": 818,
+                "prompt_tokens": 700,
+                "completion_tokens": 169,
+                "total_tokens": 869,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -1486,7 +1528,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -1507,78 +1549,83 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
-PREFIX : &lt;http://example.org/schema#&gt;
+PREFIX ex: &lt;http://example.org/schema#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
 SELECT DISTINCT ?address
 WHERE {
-  ?agent :hasParticipantRoleRecord ?roleRecord.
-  ?roleRecord :hasParticipantRoleType "enslaved".
-  ?roleRecord :recordedAt ?event.
-  ?event :providesParticipantRole ?roleRecord.
-  ?event :recordedAt ?address.
+  ?agent ex:hasAgentRecord ?record .
+  ?record a ex:InterAgentRelationshipRecord ;
+          ex:hasInterAgentRelationshipType "enslaved" ;
+          ex:isRelationshipTo ?property .
+  ?property ex:hasName ?address .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6eff9b881909cc611519861b425",
+    "id": "batch_req_686d7738df3c8190a5a1efe39a3ae7d4",
     "custom_id": "cq-12",
     "response": {
         "status_code": 200,
-        "request_id": "3555018f544346af6d487307e09c7ea6",
+        "request_id": "c72b67664fec55de09da95904fda3cc4",
         "body": {
-            "id": "chatcmpl-BKT0Rd7S7H8RfmwhkUNksfzQXxOoe",
+            "id": "chatcmpl-Br8exvbt7wXPeZSrz1wRxBNlXehO0",
             "object": "chat.completion",
-            "created": 1744217759,
+            "created": 1752004371,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT DISTINCT ?address\nWHERE {\n  ?agent :hasParticipantRoleRecord ?roleRecord.\n  ?roleRecord :hasParticipantRoleType \"enslaved\".\n  ?roleRecord :recordedAt ?event.\n  ?event :providesParticipantRole ?roleRecord.\n  ?event :recordedAt ?address.\n}\n```",
+                        "content": "```sparql\nPREFIX ex: &lt;http://example.org/schema#&gt;\nPREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;\n\nSELECT DISTINCT ?address\nWHERE {\n  ?agent ex:hasAgentRecord ?record .\n  ?record a ex:InterAgentRelationshipRecord ;\n          ex:hasInterAgentRelationshipType \"enslaved\" ;\n          ex:isRelationshipTo ?property .\n  ?property ex:hasName ?address .\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -1587,9 +1634,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 682,
-                "completion_tokens": 83,
-                "total_tokens": 765,
+                "prompt_tokens": 689,
+                "completion_tokens": 99,
+                "total_tokens": 788,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -1602,7 +1649,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -1623,93 +1670,104 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX : &lt;http://example.org/schema/&gt;
-SELECT ?individual ?fullName ?sex ?age ?time
+SELECT ?enslavedIndividual ?name ?port ?event ?ageValue ?ageCategory ?sex ?temporalExtent
 WHERE {
-  ?individual :hasParticipantRoleRecord ?roleRecord.
-  ?roleRecord :hasParticipantRoleType "enslaved".
-  ?roleRecord :roleProvidedBy ?event.
-  ?event :providesParticipantRole ?roleRecord.
-  ?individual :hasNameRecord ?nameRecord.
-  ?nameRecord :hasPreferredNameVariant ?nameVariant.
-  ?nameVariant :fullNameAsString ?fullName.
-  ?individual :hasSexRecord ?sexRecord.
-  ?sexRecord :hasValue ?sex.
-  ?individual :hasAgeRecord ?ageRecord.
-  ?ageRecord :hasValue ?age.
-  ?nameVariant :hasTemporalExtent ?temporalExtent.
-  ?temporalExtent :hasTemporalExtent ?time.
-  FILTER EXISTS {
-    ?roleRecord :roleProvidedBy ?portEvent.
-    ?portEvent :providesParticipantRole ?roleRecord.
-    # Assuming port filtering logic is applied here
-  }
+    ?enslavedIndividual a Agent ;
+                        hasName ?nameRecord .
+    ?nameRecord hasPreferredNameVariant ?nameVariant .
+    ?nameVariant fullNameAsString ?name ;
+                 hasFirstnameAsString ?firstName ;
+                 hasSurnameAsString ?surname .
+    ?enslavedIndividual hasAgentRecord ?participantRoleRecord .
+    ?participantRoleRecord a ParticipantRoleRecord ;
+                           roleProvidedBy ?event .
+    ?event hasEventType ?eventType ;
+           hasName ?eventName ;
+           hasTemporalExtent ?temporalExtent .
+    ?temporalExtent contains ?temporalExtent .
+    ?event recordedAt ?port .
+    OPTIONAL {
+        ?enslavedIndividual hasAgentRecord ?ageRecord .
+        ?ageRecord a AgeRecord ;
+                   hasAgeValue ?ageValue ;
+                   hasValue ?ageCategory .
+    }
+    OPTIONAL {
+        ?enslavedIndividual hasAgentRecord ?sexRecord .
+        ?sexRecord a SexRecord ;
+                   hasValue ?sex .
+    }
+    FILTER(?eventType = "transportation")
 }
-ORDER BY ?time
+ORDER BY ?temporalExtent
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f009b881909cedc73dc21922a3",
+    "id": "batch_req_686d77398a948190a1a6a6164c760a01",
     "custom_id": "cq-13",
     "response": {
         "status_code": 200,
-        "request_id": "d63f76155ea2b1c08857d56be0380fe8",
+        "request_id": "518602fc1c5d1d70f91ab3613beb7d5b",
         "body": {
-            "id": "chatcmpl-BKT0c3ZteC55gqstRA5sdV0oqIezv",
+            "id": "chatcmpl-Br8ex13ZYX3VeocuFEaINHeSRXIU0",
             "object": "chat.completion",
-            "created": 1744217770,
+            "created": 1752004371,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX : &lt;http://example.org/schema/&gt;\n\nSELECT ?individual ?fullName ?sex ?age ?time\nWHERE {\n  ?individual :hasParticipantRoleRecord ?roleRecord.\n  ?roleRecord :hasParticipantRoleType \"enslaved\".\n  ?roleRecord :roleProvidedBy ?event.\n  ?event :providesParticipantRole ?roleRecord.\n  \n  ?individual :hasNameRecord ?nameRecord.\n  ?nameRecord :hasPreferredNameVariant ?nameVariant.\n  ?nameVariant :fullNameAsString ?fullName.\n\n  ?individual :hasSexRecord ?sexRecord.\n  ?sexRecord :hasValue ?sex.\n  \n  ?individual :hasAgeRecord ?ageRecord.\n  ?ageRecord :hasValue ?age.\n  \n  ?nameVariant :hasTemporalExtent ?temporalExtent.\n  ?temporalExtent :hasTemporalExtent ?time.\n\n  FILTER EXISTS {\n    ?roleRecord :roleProvidedBy ?portEvent.\n    ?portEvent :providesParticipantRole ?roleRecord.\n    # Assuming port filtering logic is applied here\n  }\n}\nORDER BY ?time\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?enslavedIndividual ?name ?port ?event ?ageValue ?ageCategory ?sex ?temporalExtent\nWHERE {\n    ?enslavedIndividual a Agent ;\n                        hasName ?nameRecord .\n    ?nameRecord hasPreferredNameVariant ?nameVariant .\n    ?nameVariant fullNameAsString ?name ;\n                 hasFirstnameAsString ?firstName ;\n                 hasSurnameAsString ?surname .\n\n    ?enslavedIndividual hasAgentRecord ?participantRoleRecord .\n    ?participantRoleRecord a ParticipantRoleRecord ;\n                           roleProvidedBy ?event .\n    ?event hasEventType ?eventType ;\n           hasName ?eventName ;\n           hasTemporalExtent ?temporalExtent .\n    ?temporalExtent contains ?temporalExtent .\n\n    ?event recordedAt ?port .\n\n    OPTIONAL {\n        ?enslavedIndividual hasAgentRecord ?ageRecord .\n        ?ageRecord a AgeRecord ;\n                   hasAgeValue ?ageValue ;\n                   hasValue ?ageCategory .\n    }\n\n    OPTIONAL {\n        ?enslavedIndividual hasAgentRecord ?sexRecord .\n        ?sexRecord a SexRecord ;\n                   hasValue ?sex .\n    }\n\n    FILTER(?eventType = \"transportation\")\n}\nORDER BY ?temporalExtent\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -1718,9 +1776,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 685,
-                "completion_tokens": 250,
-                "total_tokens": 935,
+                "prompt_tokens": 692,
+                "completion_tokens": 272,
+                "total_tokens": 964,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -1733,7 +1791,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -1754,84 +1812,96 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
-    <t xml:space="preserve">```sparql
+    <t>```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT ?rebellion ?participant ?location ?date
+PREFIX : &lt;http://example.org/schema#&gt;
+SELECT ?rebellionName ?participantName ?locationName ?date
 WHERE {
-  ?rebellion a &lt;SlaveRebellion&gt; .
-  ?rebellion &lt;hasNameRecord&gt; ?nameRecord .
-  ?nameRecord &lt;hasPreferredNameVariant&gt; ?nameVariant .
-  ?nameVariant &lt;fullNameAsString&gt; ?rebellionName .
-  ?rebellion &lt;providesParticipantRole&gt; ?participantRoleRecord .
-  ?participantRoleRecord &lt;roleProvidedBy&gt; ?rebellion .
-  ?participantRoleRecord &lt;isDirectlyBasedOn&gt; ?participant .
-  ?rebellion &lt;occurredAtLocation&gt; ?location .
-  ?rebellion &lt;hasTemporalExtent&gt; ?temporalExtent .
-  ?temporalExtent &lt;startDate&gt; ?date .
+  ?rebellion a :Event;
+             :hasEventType "Slave Rebellion";
+             :hasName ?rebellionName;
+             :providesParticipantRole ?role.
+  ?role a :ParticipantRoleRecord;
+        :hasParticipantRoleType ?participantType;
+        :roleProvidedBy ?rebellion.
+  ?participant a :Agent;
+               :hasName ?participantName;
+               :hasAgentRecord ?participantRecord.
+  ?participantRecord a :AgentRecord;
+                     :recordedAt ?rebellion.
+  OPTIONAL {
+    ?rebellion :recordedAt ?locationRecord.
+    ?locationRecord :hasName ?locationName.
+  }
+  ?rebellion :hasTemporalExtent ?temporalExtent.
+  ?temporalExtent :contains ?date.
 }
-```
-</t>
+```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f01bac8190a2849f2ba7b80def",
+    "id": "batch_req_686d773a2e008190b69085b72c68829b",
     "custom_id": "cq-14",
     "response": {
         "status_code": 200,
-        "request_id": "27fb8d1d713ab963e7f35df9e1458afe",
+        "request_id": "3ffa6037ec3b2ca99cac8ca6263374df",
         "body": {
-            "id": "chatcmpl-BKT0i5bLgrTFr5jcUTk0ymP5pJL1W",
+            "id": "chatcmpl-Br8eyulGMA6CRoDHq3Gk2OggbygIx",
             "object": "chat.completion",
-            "created": 1744217776,
+            "created": 1752004372,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?rebellion ?participant ?location ?date\nWHERE {\n  ?rebellion a &lt;SlaveRebellion&gt; .\n  ?rebellion &lt;hasNameRecord&gt; ?nameRecord .\n  ?nameRecord &lt;hasPreferredNameVariant&gt; ?nameVariant .\n  ?nameVariant &lt;fullNameAsString&gt; ?rebellionName .\n\n  ?rebellion &lt;providesParticipantRole&gt; ?participantRoleRecord .\n  ?participantRoleRecord &lt;roleProvidedBy&gt; ?rebellion .\n  ?participantRoleRecord &lt;isDirectlyBasedOn&gt; ?participant .\n\n  ?rebellion &lt;occurredAtLocation&gt; ?location .\n  \n  ?rebellion &lt;hasTemporalExtent&gt; ?temporalExtent .\n  ?temporalExtent &lt;startDate&gt; ?date .\n}\n```\n",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT ?rebellionName ?participantName ?locationName ?date\nWHERE {\n  ?rebellion a :Event;\n             :hasEventType \"Slave Rebellion\";\n             :hasName ?rebellionName;\n             :providesParticipantRole ?role.\n             \n  ?role a :ParticipantRoleRecord;\n        :hasParticipantRoleType ?participantType;\n        :roleProvidedBy ?rebellion.\n\n  ?participant a :Agent;\n               :hasName ?participantName;\n               :hasAgentRecord ?participantRecord.\n               \n  ?participantRecord a :AgentRecord;\n                     :recordedAt ?rebellion.\n\n  OPTIONAL {\n    ?rebellion :recordedAt ?locationRecord.\n    ?locationRecord :hasName ?locationName.\n  }\n\n  ?rebellion :hasTemporalExtent ?temporalExtent.\n  ?temporalExtent :contains ?date.\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -1840,9 +1910,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 683,
-                "completion_tokens": 183,
-                "total_tokens": 866,
+                "prompt_tokens": 690,
+                "completion_tokens": 215,
+                "total_tokens": 905,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -1855,7 +1925,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -1876,79 +1946,92 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT ?enslavedIndividual ?relative ?relationshipType ?location
+SELECT ?enslavedName ?relativeName ?relationshipType ?event ?location
 WHERE {
-  ?enslavedIndividual rdf:type :EnslavedIndividual .
-  ?enslavedIndividual :hasInterAgentRelationshipRecord ?relationshipRecord .
-  ?relationshipRecord :isRelationshipTo ?relative .
-  ?relationshipRecord :hasInterAgentRelationshipType ?relationshipType .
-  ?relationshipRecord :recordedAt ?event .
-  ?event :hasLocation ?location .
+  ?enslaved a &lt;Agent&gt; ;
+            &lt;hasAgentRecord&gt; ?enslavedRecord .
+  ?enslavedRecord a &lt;AgentRecord&gt; ;
+                   &lt;hasName&gt; ?enslavedName ;
+                   &lt;hasTemporalExtent&gt; ?temporalExtent .
+  ?relationshipRecord a &lt;InterAgentRelationshipRecord&gt; ;
+                      &lt;isRelationshipFrom&gt; ?enslaved ;
+                      &lt;isRelationshipTo&gt; ?relative ;
+                      &lt;hasInterAgentRelationshipType&gt; ?relationshipType .
+  ?relative &lt;hasAgentRecord&gt; ?relativeRecord .
+  ?relativeRecord &lt;hasName&gt; ?relativeName .
+  OPTIONAL {
+    ?enslavedRecord &lt;recordedAt&gt; ?event .
+    ?event &lt;hasName&gt; ?location .
+  }
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f02f848190bb331334c079b772",
+    "id": "batch_req_686d773ad55481908225b06f0b08a3a5",
     "custom_id": "cq-15",
     "response": {
         "status_code": 200,
-        "request_id": "b26dfc1f7c3ffe32bc250638472c4e72",
+        "request_id": "9ac4b770d5d87d93b21da0a84afeba72",
         "body": {
-            "id": "chatcmpl-BKT1Z69ql5UCfWeAPnnMbFZTI8eVz",
+            "id": "chatcmpl-Br8f02VRRHGQsuE17zUu8l26HtF7y",
             "object": "chat.completion",
-            "created": 1744217829,
+            "created": 1752004374,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?enslavedIndividual ?relative ?relationshipType ?location\nWHERE {\n  ?enslavedIndividual rdf:type :EnslavedIndividual .\n  ?enslavedIndividual :hasInterAgentRelationshipRecord ?relationshipRecord .\n  ?relationshipRecord :isRelationshipTo ?relative .\n  ?relationshipRecord :hasInterAgentRelationshipType ?relationshipType .\n  ?relationshipRecord :recordedAt ?event .\n  ?event :hasLocation ?location .\n}\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?enslavedName ?relativeName ?relationshipType ?event ?location\nWHERE {\n  ?enslaved a &lt;Agent&gt; ;\n            &lt;hasAgentRecord&gt; ?enslavedRecord .\n  ?enslavedRecord a &lt;AgentRecord&gt; ;\n                   &lt;hasName&gt; ?enslavedName ;\n                   &lt;hasTemporalExtent&gt; ?temporalExtent .\n  ?relationshipRecord a &lt;InterAgentRelationshipRecord&gt; ;\n                      &lt;isRelationshipFrom&gt; ?enslaved ;\n                      &lt;isRelationshipTo&gt; ?relative ;\n                      &lt;hasInterAgentRelationshipType&gt; ?relationshipType .\n  ?relative &lt;hasAgentRecord&gt; ?relativeRecord .\n  ?relativeRecord &lt;hasName&gt; ?relativeName .\n  \n  OPTIONAL {\n    ?enslavedRecord &lt;recordedAt&gt; ?event .\n    ?event &lt;hasName&gt; ?location .\n  }\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -1957,9 +2040,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 683,
-                "completion_tokens": 115,
-                "total_tokens": 798,
+                "prompt_tokens": 690,
+                "completion_tokens": 196,
+                "total_tokens": 886,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -1972,7 +2055,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -1993,45 +2076,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -2039,40 +2126,41 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 SELECT (MEDIAN(?ageValue) AS ?medianAge)
 WHERE {
-  ?agent a :Agent ;
-         :hasAgeRecord ?ageRecord ;
-         :hasParticipantRoleRecord ?roleRecord .
-  ?ageRecord :hasAgeValue ?ageValue ;
-             :recordedAt ?event .
-  ?roleRecord :hasParticipantRoleType "escaped" ;
-              :recordedAt ?event .
-  ?event :providesParticipantRole ?roleRecord ;
-         :location "locationX" ;
-         :hasTemporalExtent ?temporalExtent .
-  ?temporalExtent :start ?startTime ;
-                  :end ?endTime .
-  FILTER(?startTime &gt;= "startTimePeriodX"^^xsd:dateTime &amp;&amp; ?endTime &lt;= "endTimePeriodX"^^xsd:dateTime)
+  ?agentRecord a &lt;AgeRecord&gt; ;
+               &lt;hasAgeValue&gt; ?ageValue ;
+               &lt;recordedAt&gt; ?event .
+  ?event &lt;hasEventType&gt; "escape" ;
+         &lt;hasTemporalExtent&gt; ?eventTemporalExtent .
+  ?eventTemporalExtent &lt;fallsWithin&gt; ?timePeriod .
+  ?timePeriod &lt;startsAt&gt; ?startDate ;
+              &lt;endsAt&gt; ?endDate .
+  FILTER (?startDate &gt;= "start_date"^^xsd:date &amp;&amp; ?endDate &lt;= "end_date"^^xsd:date)
+  ?event &lt;hasExternalReference&gt; ?externalReference .
+  ?externalReference &lt;refersTo&gt; ?location .
+  FILTER (?location = "location_X")
 }
-```</t>
+GROUP BY ?location
+```
+Note: Replace `"start_date"^^xsd:date`, `"end_date"^^xsd:date`, and `"location_X"` with specific values for your query.</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f0406c81909b5b65dd063a8612",
+    "id": "batch_req_686d773b7ae88190a373661eb497ae82",
     "custom_id": "cq-16",
     "response": {
         "status_code": 200,
-        "request_id": "b95b547dcba0af1c9f11ca81213a0c6c",
+        "request_id": "416e219a8a01cefb8400c398d3b537fb",
         "body": {
-            "id": "chatcmpl-BKT0k2SeVxkRapu0nEo2LVln5YVhz",
+            "id": "chatcmpl-Br8ez0UwOFDniRrTRg7Hm1xMHuPGa",
             "object": "chat.completion",
-            "created": 1744217778,
+            "created": 1752004373,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT (MEDIAN(?ageValue) AS ?medianAge)\nWHERE {\n  ?agent a :Agent ;\n         :hasAgeRecord ?ageRecord ;\n         :hasParticipantRoleRecord ?roleRecord .\n\n  ?ageRecord :hasAgeValue ?ageValue ;\n             :recordedAt ?event .\n\n  ?roleRecord :hasParticipantRoleType \"escaped\" ;\n              :recordedAt ?event .\n\n  ?event :providesParticipantRole ?roleRecord ;\n         :location \"locationX\" ;\n         :hasTemporalExtent ?temporalExtent .\n\n  ?temporalExtent :start ?startTime ;\n                  :end ?endTime .\n\n  FILTER(?startTime &gt;= \"startTimePeriodX\"^^xsd:dateTime &amp;&amp; ?endTime &lt;= \"endTimePeriodX\"^^xsd:dateTime)\n}\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT (MEDIAN(?ageValue) AS ?medianAge)\nWHERE {\n  ?agentRecord a &lt;AgeRecord&gt; ;\n               &lt;hasAgeValue&gt; ?ageValue ;\n               &lt;recordedAt&gt; ?event .\n  ?event &lt;hasEventType&gt; \"escape\" ;\n         &lt;hasTemporalExtent&gt; ?eventTemporalExtent .\n  ?eventTemporalExtent &lt;fallsWithin&gt; ?timePeriod .\n  ?timePeriod &lt;startsAt&gt; ?startDate ;\n              &lt;endsAt&gt; ?endDate .\n  FILTER (?startDate &gt;= \"start_date\"^^xsd:date &amp;&amp; ?endDate &lt;= \"end_date\"^^xsd:date)\n  ?event &lt;hasExternalReference&gt; ?externalReference .\n  ?externalReference &lt;refersTo&gt; ?location .\n  FILTER (?location = \"location_X\")\n}\nGROUP BY ?location\n```\nNote: Replace `\"start_date\"^^xsd:date`, `\"end_date\"^^xsd:date`, and `\"location_X\"` with specific values for your query.",
                         "refusal": null,
                         "annotations": []
                     },
@@ -2081,9 +2169,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 686,
-                "completion_tokens": 190,
-                "total_tokens": 876,
+                "prompt_tokens": 693,
+                "completion_tokens": 228,
+                "total_tokens": 921,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -2096,7 +2184,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -2117,45 +2205,49 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
@@ -2163,30 +2255,29 @@
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
 SELECT (AVG(?ageValue) AS ?averageAgeAtDeath)
 WHERE {
-  ?agent a &lt;Agent&gt; ;
-         hasAgeRecord ?ageRecord .
-  ?ageRecord hasAgeValue ?ageValue .
+  ?ageRecord a AgeRecord ;
+             hasAgeValue ?ageValue .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f05bb48190bbc0245e3cbe1705",
+    "id": "batch_req_686d773c231881908da5bf3a574aac5c",
     "custom_id": "cq-17",
     "response": {
         "status_code": 200,
-        "request_id": "b0a03203028958d355e6e4527a13dc06",
+        "request_id": "9cde1e4d31da1ddc43e23f8b8da41365",
         "body": {
-            "id": "chatcmpl-BKT0i36KSoS4b3OTi8TZUj2zbxH1T",
+            "id": "chatcmpl-Br8f0LhakMBjjpxcRIcYheiCOqYkf",
             "object": "chat.completion",
-            "created": 1744217776,
+            "created": 1752004374,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nSELECT (AVG(?ageValue) AS ?averageAgeAtDeath)\nWHERE {\n  ?agent a &lt;Agent&gt; ;\n         hasAgeRecord ?ageRecord .\n  ?ageRecord hasAgeValue ?ageValue .\n}\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT (AVG(?ageValue) AS ?averageAgeAtDeath)\nWHERE {\n  ?ageRecord a AgeRecord ;\n             hasAgeValue ?ageValue .\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -2195,9 +2286,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 679,
-                "completion_tokens": 67,
-                "total_tokens": 746,
+                "prompt_tokens": 686,
+                "completion_tokens": 55,
+                "total_tokens": 741,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -2210,7 +2301,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -2231,71 +2322,69 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-PREFIX : &lt;http://example.org/schema#&gt;
-SELECT ?ethnicGroup ?skillCategory (COUNT(?enslavedIndividual) AS ?count) 
-       (COUNT(?enslavedIndividual) * 100 / ?total AS ?percentage)
+PREFIX ex: &lt;http://example.org/schema#&gt;
+SELECT ?ethnicGroup ?skillCategory (COUNT(?agent) AS ?count) (COUNT(?agent) * 100 / ?total AS ?percentage)
 WHERE {
+  ?agent ex:hasAgentRecord ?agentRecord.
+  ?agentRecord ex:hasEthnicGroup ?ethnicGroup.
+  ?agentRecord ex:hasOccupationRecord ?occupationRecord.
+  ?occupationRecord ex:hasValue ?skillCategory.
   {
-    SELECT (COUNT(?enslavedIndividual) AS ?total)
+    SELECT ?ethnicGroup (COUNT(?agent) AS ?total)
     WHERE {
-      ?enslavedIndividual :hasParticipantRoleRecord ?roleRecord.
-      ?roleRecord :hasParticipantRoleType "enslaved".
+      ?agent ex:hasAgentRecord ?agentRecord.
+      ?agentRecord ex:hasEthnicGroup ?ethnicGroup.
+      ?agentRecord ex:hasOccupationRecord ?occupationRecord.
     }
+    GROUP BY ?ethnicGroup
   }
-  ?enslavedIndividual :hasParticipantRoleRecord ?roleRecord.
-  ?roleRecord :hasParticipantRoleType "enslaved".
-  ?enslavedIndividual :hasOccupationRecord ?occupationRecord.
-  ?occupationRecord :hasValue ?skillCategory.
-  ?enslavedIndividual :hasInterAgentRelationshipRecord ?relationshipRecord.
-  ?relationshipRecord :isRelationshipFrom ?enslavedIndividual;
-                      :isRelationshipTo ?relatedAgent.
-  ?relatedAgent :hasNameRecord ?nameRecord.
-  ?nameRecord :hasPreferredNameVariant ?nameVariant.
-  ?nameVariant :hasSurnameAsString ?ethnicGroup.
 }
 GROUP BY ?ethnicGroup ?skillCategory ?total
 ORDER BY ?ethnicGroup ?skillCategory
@@ -2303,22 +2392,22 @@
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f06c888190a48e9aeaf6f9075f",
+    "id": "batch_req_686d773cd1e481909232506b2d8b3d72",
     "custom_id": "cq-18",
     "response": {
         "status_code": 200,
-        "request_id": "034b5bb1d2ca314ff99a5f0e3a74c594",
+        "request_id": "9b6ada559bafdd99f97758b363b20c00",
         "body": {
-            "id": "chatcmpl-BKT0jaP4DiUwVR3JPAAkLsCG1ZVrw",
+            "id": "chatcmpl-Br8f1RYmvYAvswfrfazKpCikvQOiR",
             "object": "chat.completion",
-            "created": 1744217777,
+            "created": 1752004375,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT ?ethnicGroup ?skillCategory (COUNT(?enslavedIndividual) AS ?count) \n       (COUNT(?enslavedIndividual) * 100 / ?total AS ?percentage)\nWHERE {\n  {\n    SELECT (COUNT(?enslavedIndividual) AS ?total)\n    WHERE {\n      ?enslavedIndividual :hasParticipantRoleRecord ?roleRecord.\n      ?roleRecord :hasParticipantRoleType \"enslaved\".\n    }\n  }\n  ?enslavedIndividual :hasParticipantRoleRecord ?roleRecord.\n  ?roleRecord :hasParticipantRoleType \"enslaved\".\n  ?enslavedIndividual :hasOccupationRecord ?occupationRecord.\n  ?occupationRecord :hasValue ?skillCategory.\n  ?enslavedIndividual :hasInterAgentRelationshipRecord ?relationshipRecord.\n  ?relationshipRecord :isRelationshipFrom ?enslavedIndividual;\n                      :isRelationshipTo ?relatedAgent.\n  ?relatedAgent :hasNameRecord ?nameRecord.\n  ?nameRecord :hasPreferredNameVariant ?nameVariant.\n  ?nameVariant :hasSurnameAsString ?ethnicGroup.\n}\nGROUP BY ?ethnicGroup ?skillCategory ?total\nORDER BY ?ethnicGroup ?skillCategory\n```",
+                        "content": "```sparql\nPREFIX ex: &lt;http://example.org/schema#&gt;\n\nSELECT ?ethnicGroup ?skillCategory (COUNT(?agent) AS ?count) (COUNT(?agent) * 100 / ?total AS ?percentage)\nWHERE {\n  ?agent ex:hasAgentRecord ?agentRecord.\n  ?agentRecord ex:hasEthnicGroup ?ethnicGroup.\n  ?agentRecord ex:hasOccupationRecord ?occupationRecord.\n  ?occupationRecord ex:hasValue ?skillCategory.\n  \n  {\n    SELECT ?ethnicGroup (COUNT(?agent) AS ?total)\n    WHERE {\n      ?agent ex:hasAgentRecord ?agentRecord.\n      ?agentRecord ex:hasEthnicGroup ?ethnicGroup.\n      ?agentRecord ex:hasOccupationRecord ?occupationRecord.\n    }\n    GROUP BY ?ethnicGroup\n  }\n}\nGROUP BY ?ethnicGroup ?skillCategory ?total\nORDER BY ?ethnicGroup ?skillCategory\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -2327,9 +2416,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 689,
-                "completion_tokens": 282,
-                "total_tokens": 971,
+                "prompt_tokens": 696,
+                "completion_tokens": 198,
+                "total_tokens": 894,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -2342,7 +2431,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -2363,100 +2452,128 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT ?ethnicityGroup (COUNT(?event) AS ?count) (COUNT(?event) * 100 / ?total AS ?percentage)
+PREFIX : &lt;http://example.org/schema#&gt;
+SELECT ?ethnicityCategory (COUNT(?event) AS ?eventCount) (COUNT(?event) * 100.0 / ?total AS ?percentage)
 WHERE {
   {
     SELECT (COUNT(?event) AS ?total)
     WHERE {
-      ?event a :MarriageEvent .
-      ?event :providesParticipantRole ?role1, ?role2 .
+      ?event a :Event ;
+             :hasEventType "Marriage" ;
+             :providesParticipantRole ?role1, ?role2 .
+      ?role1 :hasParticipantRoleType "Spouse" .
+      ?role2 :hasParticipantRoleType "Spouse" .
       ?role1 :roleProvidedBy ?event .
       ?role2 :roleProvidedBy ?event .
-      ?role1 :hasParticipantRoleType "Spouse" .
-      ?role2 :hasParticipantRoleType "Spouse" .
-      ?role1 :isDirectlyBasedOn ?agent1 .
-      ?role2 :isDirectlyBasedOn ?agent2 .
-      ?agent1 :hasEthnicityRecord ?ethnicity1 .
-      ?agent2 :hasEthnicityRecord ?ethnicity2 .
+      ?relationshipRecord a :InterAgentRelationshipRecord ;
+                          :hasInterAgentRelationshipType "Marriage" ;
+                          :isRelationshipFrom ?agent1 ;
+                          :isRelationshipTo ?agent2 .
+      ?agent1 :hasAgentRecord ?record1 .
+      ?agent2 :hasAgentRecord ?record2 .
+      ?record1 :hasExternalReference ?ref1 .
+      ?record2 :hasExternalReference ?ref2 .
+      ?ref1 :refersTo ?extReferent1 .
+      ?ref2 :refersTo ?extReferent2 .
+      ?extReferent1 a :Agent ;
+                    :hasEthnicity ?ethnicity1 .
+      ?extReferent2 a :Agent ;
+                    :hasEthnicity ?ethnicity2 .
     }
   }
-  ?event a :MarriageEvent .
-  ?event :providesParticipantRole ?role1, ?role2 .
+  ?event a :Event ;
+         :hasEventType "Marriage" ;
+         :providesParticipantRole ?role1, ?role2 .
+  ?role1 :hasParticipantRoleType "Spouse" .
+  ?role2 :hasParticipantRoleType "Spouse" .
   ?role1 :roleProvidedBy ?event .
   ?role2 :roleProvidedBy ?event .
-  ?role1 :hasParticipantRoleType "Spouse" .
-  ?role2 :hasParticipantRoleType "Spouse" .
-  ?role1 :isDirectlyBasedOn ?agent1 .
-  ?role2 :isDirectlyBasedOn ?agent2 .
-  ?agent1 :hasEthnicityRecord ?ethnicity1 .
-  ?agent2 :hasEthnicityRecord ?ethnicity2 .
-  BIND(IF(?ethnicity1 = ?ethnicity2, "Same Ethnic Group", "Different Ethnic Group") AS ?ethnicityGroup)
+  ?relationshipRecord a :InterAgentRelationshipRecord ;
+                      :hasInterAgentRelationshipType "Marriage" ;
+                      :isRelationshipFrom ?agent1 ;
+                      :isRelationshipTo ?agent2 .
+  ?agent1 :hasAgentRecord ?record1 .
+  ?agent2 :hasAgentRecord ?record2 .
+  ?record1 :hasExternalReference ?ref1 .
+  ?record2 :hasExternalReference ?ref2 .
+  ?ref1 :refersTo ?extReferent1 .
+  ?ref2 :refersTo ?extReferent2 .
+  ?extReferent1 a :Agent ;
+                :hasEthnicity ?ethnicity1 .
+  ?extReferent2 a :Agent ;
+                :hasEthnicity ?ethnicity2 .
+  BIND(IF(?ethnicity1 = ?ethnicity2, "Same", "Different") AS ?ethnicityCategory)
 }
-GROUP BY ?ethnicityGroup ?total
+GROUP BY ?ethnicityCategory
+ORDER BY DESC(?percentage)
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f07d3481909840234b5d654d28",
+    "id": "batch_req_686d773d89508190b6be89691199ce8e",
     "custom_id": "cq-19",
     "response": {
         "status_code": 200,
-        "request_id": "f9fbf713f1ba44f928f2cf1fef0c458d",
+        "request_id": "ee728f0214ae8653e124dd18d12c896a",
         "body": {
-            "id": "chatcmpl-BKT0hhRr17H4GtLDVsFkZRoQ8yRQZ",
+            "id": "chatcmpl-Br8f2DEvsVvoouRLDXh65wRFdoZ6w",
             "object": "chat.completion",
-            "created": 1744217775,
+            "created": 1752004376,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?ethnicityGroup (COUNT(?event) AS ?count) (COUNT(?event) * 100 / ?total AS ?percentage)\nWHERE {\n  {\n    SELECT (COUNT(?event) AS ?total)\n    WHERE {\n      ?event a :MarriageEvent .\n      ?event :providesParticipantRole ?role1, ?role2 .\n      ?role1 :roleProvidedBy ?event .\n      ?role2 :roleProvidedBy ?event .\n      ?role1 :hasParticipantRoleType \"Spouse\" .\n      ?role2 :hasParticipantRoleType \"Spouse\" .\n      ?role1 :isDirectlyBasedOn ?agent1 .\n      ?role2 :isDirectlyBasedOn ?agent2 .\n      ?agent1 :hasEthnicityRecord ?ethnicity1 .\n      ?agent2 :hasEthnicityRecord ?ethnicity2 .\n    }\n  }\n  ?event a :MarriageEvent .\n  ?event :providesParticipantRole ?role1, ?role2 .\n  ?role1 :roleProvidedBy ?event .\n  ?role2 :roleProvidedBy ?event .\n  ?role1 :hasParticipantRoleType \"Spouse\" .\n  ?role2 :hasParticipantRoleType \"Spouse\" .\n  ?role1 :isDirectlyBasedOn ?agent1 .\n  ?role2 :isDirectlyBasedOn ?agent2 .\n  ?agent1 :hasEthnicityRecord ?ethnicity1 .\n  ?agent2 :hasEthnicityRecord ?ethnicity2 .\n\n  BIND(IF(?ethnicity1 = ?ethnicity2, \"Same Ethnic Group\", \"Different Ethnic Group\") AS ?ethnicityGroup)\n}\nGROUP BY ?ethnicityGroup ?total\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT ?ethnicityCategory (COUNT(?event) AS ?eventCount) (COUNT(?event) * 100.0 / ?total AS ?percentage)\nWHERE {\n  {\n    SELECT (COUNT(?event) AS ?total)\n    WHERE {\n      ?event a :Event ;\n             :hasEventType \"Marriage\" ;\n             :providesParticipantRole ?role1, ?role2 .\n      ?role1 :hasParticipantRoleType \"Spouse\" .\n      ?role2 :hasParticipantRoleType \"Spouse\" .\n      ?role1 :roleProvidedBy ?event .\n      ?role2 :roleProvidedBy ?event .\n\n      ?relationshipRecord a :InterAgentRelationshipRecord ;\n                          :hasInterAgentRelationshipType \"Marriage\" ;\n                          :isRelationshipFrom ?agent1 ;\n                          :isRelationshipTo ?agent2 .\n\n      ?agent1 :hasAgentRecord ?record1 .\n      ?agent2 :hasAgentRecord ?record2 .\n\n      ?record1 :hasExternalReference ?ref1 .\n      ?record2 :hasExternalReference ?ref2 .\n\n      ?ref1 :refersTo ?extReferent1 .\n      ?ref2 :refersTo ?extReferent2 .\n\n      ?extReferent1 a :Agent ;\n                    :hasEthnicity ?ethnicity1 .\n      ?extReferent2 a :Agent ;\n                    :hasEthnicity ?ethnicity2 .\n    }\n  }\n  ?event a :Event ;\n         :hasEventType \"Marriage\" ;\n         :providesParticipantRole ?role1, ?role2 .\n  ?role1 :hasParticipantRoleType \"Spouse\" .\n  ?role2 :hasParticipantRoleType \"Spouse\" .\n  ?role1 :roleProvidedBy ?event .\n  ?role2 :roleProvidedBy ?event .\n\n  ?relationshipRecord a :InterAgentRelationshipRecord ;\n                      :hasInterAgentRelationshipType \"Marriage\" ;\n                      :isRelationshipFrom ?agent1 ;\n                      :isRelationshipTo ?agent2 .\n\n  ?agent1 :hasAgentRecord ?record1 .\n  ?agent2 :hasAgentRecord ?record2 .\n\n  ?record1 :hasExternalReference ?ref1 .\n  ?record2 :hasExternalReference ?ref2 .\n\n  ?ref1 :refersTo ?extReferent1 .\n  ?ref2 :refersTo ?extReferent2 .\n\n  ?extReferent1 a :Agent ;\n                :hasEthnicity ?ethnicity1 .\n  ?extReferent2 a :Agent ;\n                :hasEthnicity ?ethnicity2 .\n\n  BIND(IF(?ethnicity1 = ?ethnicity2, \"Same\", \"Different\") AS ?ethnicityCategory)\n}\nGROUP BY ?ethnicityCategory\nORDER BY DESC(?percentage)\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -2465,9 +2582,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 691,
-                "completion_tokens": 376,
-                "total_tokens": 1067,
+                "prompt_tokens": 698,
+                "completion_tokens": 598,
+                "total_tokens": 1296,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -2480,7 +2597,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -2501,97 +2618,98 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT ?ethnicity ?skills ?gender ?period ?economicValue
+PREFIX : &lt;http://example.org/schema#&gt;
+SELECT ?ethnicity ?skill ?gender ?period ?economicValue
 WHERE {
-  ?agent a &lt;Agent&gt; ;
-         &lt;hasOccupationRecord&gt; ?occupationRecord ;
-         &lt;hasSexRecord&gt; ?sexRecord ;
-         &lt;hasParticipantRoleRecord&gt; ?participantRoleRecord .
-  ?occupationRecord &lt;hasValue&gt; ?skills .
-  ?sexRecord &lt;hasValue&gt; ?gender .
-  ?participantRoleRecord &lt;hasTemporalExtent&gt; ?temporalExtent .
-  ?temporalExtent &lt;hasStartDate&gt; ?startDate ;
-                  &lt;hasEndDate&gt; ?endDate .
-  BIND (CONCAT(STR(?startDate), "-", STR(?endDate)) AS ?period)
+  ?agent :hasAgentRecord ?agentRecord.
   OPTIONAL {
-    ?agent &lt;hasInterAgentRelationshipRecord&gt; ?relationshipRecord .
-    ?relationshipRecord &lt;isRelationshipTo&gt; ?relatedAgent ;
-                       &lt;hasInterAgentRelationshipType&gt; ?relationshipType .
-    FILTER(?relationshipType = "EconomicValue")
-    ?relatedAgent &lt;hasEconomicValue&gt; ?economicValue .
+    ?agentRecord a :OccupationRecord;
+                 :hasValue ?skill.
   }
-  FILTER EXISTS {
-    ?agent &lt;hasInterAgentRelationshipRecord&gt; ?relationshipRecord .
-    ?relationshipRecord &lt;isRelationshipTo&gt; ?relatedAgent ;
-                       &lt;hasInterAgentRelationshipType&gt; ?relationshipType .
-    FILTER(?relationshipType = "Ethnicity")
-    ?relatedAgent &lt;hasEthnicity&gt; ?ethnicity .
+  OPTIONAL {
+    ?agentRecord a :SexRecord;
+                 :hasValue ?gender.
+  }
+  OPTIONAL {
+    ?agentRecord a :AgeRecord;
+                 :hasAgeValue ?economicValue.
+  }
+  ?agentRecord :hasTemporalExtent ?temporalExtent.
+  OPTIONAL {
+    ?temporalExtent :fallsWithin ?timespan.
+    ?timespan :startsAt ?startDate;
+              :endsAt ?endDate.
+    BIND(CONCAT(STR(?startDate), " to ", STR(?endDate)) AS ?period)
   }
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f092dc819085272396c30c5a0c",
+    "id": "batch_req_686d773e2f48819084a2841963c9d462",
     "custom_id": "cq-20",
     "response": {
         "status_code": 200,
-        "request_id": "a5e3e34f04bd1416cc67998e732d9bd2",
+        "request_id": "6cb31e7ea7977906c3353a01c546c1fb",
         "body": {
-            "id": "chatcmpl-BKT0m0OUTfZWwr8M3ZenYt2o9L068",
+            "id": "chatcmpl-Br8f21lUy81lAN4R8J62kHNllEEsJ",
             "object": "chat.completion",
-            "created": 1744217780,
+            "created": 1752004376,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?ethnicity ?skills ?gender ?period ?economicValue\nWHERE {\n  ?agent a &lt;Agent&gt; ;\n         &lt;hasOccupationRecord&gt; ?occupationRecord ;\n         &lt;hasSexRecord&gt; ?sexRecord ;\n         &lt;hasParticipantRoleRecord&gt; ?participantRoleRecord .\n\n  ?occupationRecord &lt;hasValue&gt; ?skills .\n  ?sexRecord &lt;hasValue&gt; ?gender .\n  ?participantRoleRecord &lt;hasTemporalExtent&gt; ?temporalExtent .\n\n  ?temporalExtent &lt;hasStartDate&gt; ?startDate ;\n                  &lt;hasEndDate&gt; ?endDate .\n  BIND (CONCAT(STR(?startDate), \"-\", STR(?endDate)) AS ?period)\n\n  OPTIONAL {\n    ?agent &lt;hasInterAgentRelationshipRecord&gt; ?relationshipRecord .\n    ?relationshipRecord &lt;isRelationshipTo&gt; ?relatedAgent ;\n                       &lt;hasInterAgentRelationshipType&gt; ?relationshipType .\n    FILTER(?relationshipType = \"EconomicValue\")\n    ?relatedAgent &lt;hasEconomicValue&gt; ?economicValue .\n  }\n\n  FILTER EXISTS {\n    ?agent &lt;hasInterAgentRelationshipRecord&gt; ?relationshipRecord .\n    ?relationshipRecord &lt;isRelationshipTo&gt; ?relatedAgent ;\n                       &lt;hasInterAgentRelationshipType&gt; ?relationshipType .\n    FILTER(?relationshipType = \"Ethnicity\")\n    ?relatedAgent &lt;hasEthnicity&gt; ?ethnicity .\n  }\n}\n\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT ?ethnicity ?skill ?gender ?period ?economicValue\nWHERE {\n  ?agent :hasAgentRecord ?agentRecord.\n  \n  OPTIONAL {\n    ?agentRecord a :OccupationRecord;\n                 :hasValue ?skill.\n  }\n  \n  OPTIONAL {\n    ?agentRecord a :SexRecord;\n                 :hasValue ?gender.\n  }\n  \n  OPTIONAL {\n    ?agentRecord a :AgeRecord;\n                 :hasAgeValue ?economicValue.\n  }\n  \n  ?agentRecord :hasTemporalExtent ?temporalExtent.\n  \n  OPTIONAL {\n    ?temporalExtent :fallsWithin ?timespan.\n    ?timespan :startsAt ?startDate;\n              :endsAt ?endDate.\n    BIND(CONCAT(STR(?startDate), \" to \", STR(?endDate)) AS ?period)\n  }\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -2600,9 +2718,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 690,
-                "completion_tokens": 298,
-                "total_tokens": 988,
+                "prompt_tokens": 697,
+                "completion_tokens": 202,
+                "total_tokens": 899,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -2615,7 +2733,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -2636,79 +2754,86 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
-PREFIX ex: &lt;http://example.org/schema/&gt;
-SELECT ?lifeOutcome
+PREFIX : &lt;http://example.org/schema#&gt;
+SELECT ?lifeOutcome ?eventName
 WHERE {
-  ?agent ex:hasParticipantRoleRecord ?roleRecord .
-  ?roleRecord ex:roleProvidedBy ?event .
-  ?event ex:providesParticipantRole ?roleRecord .
-  ?event ex:eventType "disembarkation" .
-  ?event ex:isRelatedToShip "XXX" .
-  ?agent ex:hasLifeOutcome ?lifeOutcome .
+  ?event :hasName "Ship XXX" .
+  ?event :subEventOf ?lifeOutcomeEvent .
+  ?lifeOutcomeEvent :hasEventType ?lifeOutcome .
+  ?lifeOutcomeEvent :providesParticipantRole ?participantRoleRecord .
+  ?participantRoleRecord :roleProvidedBy ?disembarkationEvent .
+  ?participantRoleRecord :hasParticipantRoleType "enslaved individual" .
+  ?disembarkationEvent :subEventOf ?lifeOutcomeEvent .
+  ?lifeOutcomeEvent :hasName ?eventName .
+  FILTER(?lifeOutcome IN ("sale", "manumission", "death"))
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f0a3b481908c1b685c013ae385",
+    "id": "batch_req_686d773ed5d48190a084df338cf09afa",
     "custom_id": "cq-21",
     "response": {
         "status_code": 200,
-        "request_id": "cb15749be2397377d624e382d5bf84a0",
+        "request_id": "ee9e6667a20c30366e92f00625fc753f",
         "body": {
-            "id": "chatcmpl-BKT0icNsTqlVeEWnnBzgIdd9ChFG9",
+            "id": "chatcmpl-Br8f2vOGQAOqe01ug0W2I8i1NySNd",
             "object": "chat.completion",
-            "created": 1744217776,
+            "created": 1752004376,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX ex: &lt;http://example.org/schema/&gt;\n\nSELECT ?lifeOutcome\nWHERE {\n  ?agent ex:hasParticipantRoleRecord ?roleRecord .\n  ?roleRecord ex:roleProvidedBy ?event .\n  ?event ex:providesParticipantRole ?roleRecord .\n  ?event ex:eventType \"disembarkation\" .\n  ?event ex:isRelatedToShip \"XXX\" .\n  ?agent ex:hasLifeOutcome ?lifeOutcome .\n}\n```",
+                        "content": "```sparql\nPREFIX : &lt;http://example.org/schema#&gt;\n\nSELECT ?lifeOutcome ?eventName\nWHERE {\n  ?event :hasName \"Ship XXX\" .\n  ?event :subEventOf ?lifeOutcomeEvent .\n  ?lifeOutcomeEvent :hasEventType ?lifeOutcome .\n  ?lifeOutcomeEvent :providesParticipantRole ?participantRoleRecord .\n  ?participantRoleRecord :roleProvidedBy ?disembarkationEvent .\n  ?participantRoleRecord :hasParticipantRoleType \"enslaved individual\" .\n  ?disembarkationEvent :subEventOf ?lifeOutcomeEvent .\n  ?lifeOutcomeEvent :hasName ?eventName .\n  FILTER(?lifeOutcome IN (\"sale\", \"manumission\", \"death\"))\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -2717,9 +2842,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 695,
-                "completion_tokens": 99,
-                "total_tokens": 794,
+                "prompt_tokens": 702,
+                "completion_tokens": 155,
+                "total_tokens": 857,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -2732,7 +2857,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -2753,87 +2878,89 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
 PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT ?agent ?nameVariant
+SELECT ?enslavedIndividualName
 WHERE {
-  ?agent a Agent ;
-         hasNameRecord ?nameRecord ;
-         hasParticipantRoleRecord ?roleRecord .
-  ?nameRecord hasPreferredNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?fullName .
-  ?roleRecord hasParticipantRoleType "enslaved" ;
-              hasTemporalExtent ?temporalExtent ;
-              roleProvidedBy ?recordedEvent .
-  ?temporalExtent xsd:end ?endTime ;
-                  xsd:start ?startTime .
-  FILTER (?startTime &lt;= "XXX"^^xsd:dateTime &amp;&amp; ?endTime &gt;= "XXX"^^xsd:dateTime) .
-  ?recordedEvent providesParticipantRole ?roleRecord ;
-                 recordedAt ?location .
-  FILTER (?location = &lt;locationX_URI&gt;)
+  ?agentRecord a :AgentRecord ;
+               :hasTemporalExtent ?temporalExtent ;
+               :recordedAt ?event .
+  ?temporalExtent :startsAt ?startDate ;
+                  :endsAt ?endDate .
+  FILTER (?startDate &lt;= "XXX"^^xsd:date &amp;&amp; ?endDate &gt;= "XXX"^^xsd:date) .
+  ?event :hasName "Location X"^^xsd:string ;
+         :providesParticipantRole ?participantRole .
+  ?participantRole :hasParticipantRoleType "enslaved" ;
+                   :roleProvidedBy ?event .
+  ?enslavedIndividual :hasAgentRecord ?agentRecord ;
+                      :hasName ?enslavedIndividualName .
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f0b4788190b48e7ed4ca723175",
+    "id": "batch_req_686d773f7e2881909c4f920a42e576e6",
     "custom_id": "cq-22",
     "response": {
         "status_code": 200,
-        "request_id": "7f7f5f2bff8d69d28fda86b4cdb32a7f",
+        "request_id": "9a535e42761241d53bf11f76eb17dcf9",
         "body": {
-            "id": "chatcmpl-BKT0yZFsY498BgKuIURjloRtaNgM3",
+            "id": "chatcmpl-Br8f2sbplvAwWITuk3qGlMCCHMNFh",
             "object": "chat.completion",
-            "created": 1744217792,
+            "created": 1752004376,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?agent ?nameVariant\nWHERE {\n  ?agent a Agent ;\n         hasNameRecord ?nameRecord ;\n         hasParticipantRoleRecord ?roleRecord .\n  ?nameRecord hasPreferredNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?fullName .\n  \n  ?roleRecord hasParticipantRoleType \"enslaved\" ;\n              hasTemporalExtent ?temporalExtent ;\n              roleProvidedBy ?recordedEvent .\n  ?temporalExtent xsd:end ?endTime ;\n                  xsd:start ?startTime .\n  FILTER (?startTime &lt;= \"XXX\"^^xsd:dateTime &amp;&amp; ?endTime &gt;= \"XXX\"^^xsd:dateTime) .\n\n  ?recordedEvent providesParticipantRole ?roleRecord ;\n                 recordedAt ?location .\n  FILTER (?location = &lt;locationX_URI&gt;)\n}\n```",
+                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT ?enslavedIndividualName\nWHERE {\n  ?agentRecord a :AgentRecord ;\n               :hasTemporalExtent ?temporalExtent ;\n               :recordedAt ?event .\n  ?temporalExtent :startsAt ?startDate ;\n                  :endsAt ?endDate .\n  FILTER (?startDate &lt;= \"XXX\"^^xsd:date &amp;&amp; ?endDate &gt;= \"XXX\"^^xsd:date) .\n  \n  ?event :hasName \"Location X\"^^xsd:string ;\n         :providesParticipantRole ?participantRole .\n  \n  ?participantRole :hasParticipantRoleType \"enslaved\" ;\n                   :roleProvidedBy ?event .\n\n  ?enslavedIndividual :hasAgentRecord ?agentRecord ;\n                      :hasName ?enslavedIndividualName .\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -2842,9 +2969,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 684,
-                "completion_tokens": 192,
-                "total_tokens": 876,
+                "prompt_tokens": 691,
+                "completion_tokens": 184,
+                "total_tokens": 875,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -2857,7 +2984,7 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
@@ -2878,86 +3005,92 @@
 Context:
 Below is the schema of a knowledge graph:
 Subject,Predicate,Object
-Agent,hasNameRecord,NameRecord
+Agent,hasAgentRecord,AgentRecord
+Agent,hasExternalReference,ExternalReference
+Agent,hasName,xsd:string
+AgentRecord,hasTemporalExtent,TemporalExtent
+AgentRecord,recordedAt,Event
+AgentRecord,temporalExtentContains,xsd:date
+AgeRecord,hasAgeValue,xsd:double
+AgeRecord,hasValue,AgeCategory.txt
+AgeRecord,subClassOf,AgentRecord
+Event,hasEventType,EventTypes.txt
+Event,hasExternalReference,ExternalReference
+Event,hasName,xsd:string
+Event,hasTemporalExtent,TemporalExtent
+Event,providesParticipantRole,ParticipantRoleRecord
+Event,subEventOf,Event
+ExternalReference,refersTo,ExternalReferent
+ExternalReference,withID,xsd:string
+InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
+InterAgentRelationshipRecord,isRelationshipFrom,Agent
+InterAgentRelationshipRecord,isRelationshipTo,Agent
+InterAgentRelationshipRecord,subClassOf,AgentRecord
+OccupationRecord,hasValue,Occupations.txt
+OccupationRecord,subClassOf,AgentRecord
+NameVariant,fullNameAsString,xsd:string
+NameVariant,hasFirstnameAsString,xsd:string
 NameRecord,hasNameVariant,NameVariant
 NameRecord,hasPreferredNameVariant,NameVariant
-NameVariant,fullNameAsString,xsd:string
 NameVariant,hasSurnameAsString,xsd:string
-NameVariant,hasFirstnameAsString,xsd:string
-NameVariant,isDirectlyBasedOn,EntityWithProvenance
-NameVariant,hasTemporalExtent,TemporalExtent
-NameVariant,recordedAt,Event
-Agent,hasSexRecord,SexRecord
+NameRecord,subClassOf,AgentRecord
+ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
+ParticipantRoleRecord,roleProvidedBy,Event
+ParticipantRoleRecord,subClassOf,AgentRecord
 SexRecord,hasValue,sexTypes.txt
-SexRecord,isDirectlyBasedOn,EntityWithProvenance
-SexRecord,hasTemporalExtent,TemporalExtent
-SexRecord,recordedAt,Event
-Agent,hasOccupationRecord,OccupationRecord
-OccupationRecord,hasValue,Occupations.txt
-OccupationRecord,isDirectlyBasedOn,EntityWithProvenance
-OccupationRecord,hasTemporalExtent,TemporalExtent
-OccupationRecord,recordedAt,Event
-Agent,hasAgeRecord,AgeRecord
-AgeRecord,hasValue,AgeCategory.txt
-AgeRecord,hasAgeValue,xsd:double
-AgeRecord,isDirectlyBasedOn,EntityWithProvenance
-AgeRecord,hasTemporalExtent,TemporalExtent
-AgeRecord,recordedAt,Event
-Agent,hasParticipantRoleRecord,ParticipantRoleRecord
-ParticipantRoleRecord,hasParticipantRoleType,ParticipantRoleTypes.txt
-ParticipantRoleRecord,isDirectlyBasedOn,EntityWithProvenance
-ParticipantRoleRecord,hasTemporalExtent,TemporalExtent
-ParticipantRoleRecord,recordedAt,Event
-ParticipantRoleRecord,roleProvidedBy,Event
-Event,providesParticipantRole,ParticipantRoleRecord
-Agent,hasInterAgentRelationshipRecord,InterAgentRelationshipRecord
-InterAgentRelationshipRecord,isRelationshipTo,Agent
-InterAgentRelationshipRecord,isRelationshipFrom,Agent
-InterAgentRelationshipRecord,hasInterAgentRelationshipType,InterAgentRelationshipTypes.txt
-InterAgentRelationshipRecord,isDirectlyBasedOn,EntityWithProvenance
-InterAgentRelationshipRecord,hasTemporalExtent,TemporalExtent
-InterAgentRelationshipRecord,recordedAt,Event
+SexRecord,subClassOf,AgentRecord
+TemporalExtent,contains,xsd:date
+TemporalExtent,endsAt,xsd:date
+TemporalExtent,fallsWithin,Timespan
+TemporalExtent,occursAfter,xsd:date
+TemporalExtent,occursBefore,xsd:date
+TemporalExtent,startsAt,xsd:date
+Timespan,endsAt,xsd:date
+Timespan,startsAt,xsd:date
+Timespan,subClassOf,TemporalExtent
 </t>
   </si>
   <si>
     <t>```sparql
-PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
-SELECT DISTINCT ?enslavedIndividual ?fullName ?ownershipActivity ?activityDate
+PREFIX ex: &lt;http://example.org/schema/&gt;
+SELECT ?enslavedIndividual ?ownershipDetails
 WHERE {
-  ?enslavedIndividual a &lt;Agent&gt; ;
-                      hasParticipantRoleRecord ?enslavedRoleRecord .
-  ?enslavedRoleRecord hasParticipantRoleType "Enslaved" ;
-                      isDirectlyBasedOn ?enslavedProvenance .
-  ?enslavedIndividual hasParticipantRoleRecord ?ownerRoleRecord .
-  ?ownerRoleRecord hasParticipantRoleType "Owner" ;
-                  isDirectlyBasedOn ?ownerProvenance .
-  ?enslavedIndividual hasNameRecord ?nameRecord .
-  ?nameRecord hasPreferredNameVariant ?nameVariant .
-  ?nameVariant fullNameAsString ?fullName .
-  ?ownerRoleRecord roleProvidedBy ?ownershipEvent .
-  ?ownershipEvent providesParticipantRole ?ownershipActivity ;
-                  recordedAt ?activityDate .
+  ?enslavedIndividual ex:hasAgentRecord ?enslavedRecord.
+  ?enslavedRecord ex:hasInterAgentRelationshipType "enslaved".
+  ?ownershipRecord ex:isRelationshipFrom ?enslavedIndividual;
+                   ex:hasInterAgentRelationshipType "slaveOwner";
+                   ex:subClassOf ex:AgentRecord.
+  OPTIONAL {
+    ?ownershipRecord ex:hasTemporalExtent ?temporalExtent.
+    ?temporalExtent ex:startsAt ?ownershipStartDate;
+                    ex:endsAt ?ownershipEndDate.
+    ?ownershipRecord ex:recordedAt ?event.
+    ?event ex:hasName ?ownershipActivity.
+  }
+  BIND (CONCAT("Ownership started on: ", STR(?ownershipStartDate), 
+               "; ended on: ", STR(?ownershipEndDate), 
+               "; activity: ", ?ownershipActivity) AS ?ownershipDetails)
 }
 ```</t>
   </si>
   <si>
     <t>{
-    "id": "batch_req_67f6a6f0c67c8190a047e9488065c9bd",
+    "id": "batch_req_686d774025288190884473bf524a215a",
     "custom_id": "cq-23",
     "response": {
         "status_code": 200,
-        "request_id": "78cfe350bcfc34e684990f7a79d54589",
+        "request_id": "e11ae66a55a9668438c2c4c99560e510",
         "body": {
-            "id": "chatcmpl-BKT0RROQAyGqH8x9a0c9ak04mkHzp",
+            "id": "chatcmpl-Br8f3qRnnkbuZeKf5MT0frFDcED2I",
             "object": "chat.completion",
-            "created": 1744217759,
+            "created": 1752004377,
             "model": "gpt-4o-2024-08-06",
             "choices": [
                 {
                     "index": 0,
                     "message": {
                         "role": "assistant",
-                        "content": "```sparql\nPREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;\n\nSELECT DISTINCT ?enslavedIndividual ?fullName ?ownershipActivity ?activityDate\nWHERE {\n  ?enslavedIndividual a &lt;Agent&gt; ;\n                      hasParticipantRoleRecord ?enslavedRoleRecord .\n  ?enslavedRoleRecord hasParticipantRoleType \"Enslaved\" ;\n                      isDirectlyBasedOn ?enslavedProvenance .\n\n  ?enslavedIndividual hasParticipantRoleRecord ?ownerRoleRecord .\n  ?ownerRoleRecord hasParticipantRoleType \"Owner\" ;\n                  isDirectlyBasedOn ?ownerProvenance .\n\n  ?enslavedIndividual hasNameRecord ?nameRecord .\n  ?nameRecord hasPreferredNameVariant ?nameVariant .\n  ?nameVariant fullNameAsString ?fullName .\n\n  ?ownerRoleRecord roleProvidedBy ?ownershipEvent .\n  ?ownershipEvent providesParticipantRole ?ownershipActivity ;\n                  recordedAt ?activityDate .\n}\n```",
+                        "content": "```sparql\nPREFIX ex: &lt;http://example.org/schema/&gt;\n\nSELECT ?enslavedIndividual ?ownershipDetails\nWHERE {\n  ?enslavedIndividual ex:hasAgentRecord ?enslavedRecord.\n  ?enslavedRecord ex:hasInterAgentRelationshipType \"enslaved\".\n  \n  ?ownershipRecord ex:isRelationshipFrom ?enslavedIndividual;\n                   ex:hasInterAgentRelationshipType \"slaveOwner\";\n                   ex:subClassOf ex:AgentRecord.\n                   \n  OPTIONAL {\n    ?ownershipRecord ex:hasTemporalExtent ?temporalExtent.\n    ?temporalExtent ex:startsAt ?ownershipStartDate;\n                    ex:endsAt ?ownershipEndDate.\n                    \n    ?ownershipRecord ex:recordedAt ?event.\n    ?event ex:hasName ?ownershipActivity.\n  }\n  \n  BIND (CONCAT(\"Ownership started on: \", STR(?ownershipStartDate), \n               \"; ended on: \", STR(?ownershipEndDate), \n               \"; activity: \", ?ownershipActivity) AS ?ownershipDetails)\n}\n```",
                         "refusal": null,
                         "annotations": []
                     },
@@ -2966,9 +3099,9 @@
                 }
             ],
             "usage": {
-                "prompt_tokens": 688,
-                "completion_tokens": 204,
-                "total_tokens": 892,
+                "prompt_tokens": 695,
+                "completion_tokens": 216,
+                "total_tokens": 911,
                 "prompt_tokens_details": {
                     "cached_tokens": 0,
                     "audio_tokens": 0
@@ -2981,114 +3114,18 @@
                 }
             },
             "service_tier": "default",
-            "system_fingerprint": "fp_de57b65c90"
+            "system_fingerprint": "fp_3be1506da3"
         }
     },
     "error": null
 }</t>
-  </si>
-  <si>
-    <t>Agent record does not directly point to a hasNameRecord. I think that would have to be accessed by going from Agent to an AgentRecord. 
-To me it seems like it is treating Agent like AgentRecord. Also, seems to not be using the hasName shortcut.
-I scored this result as a 0 because the links are mostly intact between entities and relationships are mostly intact. the only issue i saw being the using the Agent entity to access name record directly instead of doing something like 
-?ep a Agent;
-        hasAgentRecord ?nameRecord;
-I am also assuming the rdf:label thing is right</t>
-  </si>
-  <si>
-    <t>Scored -1 because I think it si incorrectly getting the locaiton variable.</t>
-  </si>
-  <si>
-    <t>Scored -1 for the following reasons:         ?temporalExtent does not seem to have a :hasYear role. 
-The :recordedAt does not seem to be a valid role for ?event.
-I believe the :providesPopulationCount is hallucinated as I cannot find it in the schema.</t>
-  </si>
-  <si>
-    <t>The hasLiteracyStatusRecord seems to be hallucainted as I cannot find it in the schema. I also could not find a corresponding :hasValue relationship.</t>
-  </si>
-  <si>
-    <t>Good up until finding the geographical place. Instead of using atPlace it uses recordedAt which would cause the object to be an event and not a place.</t>
-  </si>
-  <si>
-    <t>hasNameRecord and hasAgeRecord are not accessible directly from Agent, but everything else seems to look good.</t>
-  </si>
-  <si>
-    <t>Agent does not have a hasNameRecord role. :recordedAtLocation seems to be made up as there is no part of the schema that aligns with that. I am scoring it a 0 for those reasons</t>
-  </si>
-  <si>
-    <t>Good. The only thing is how the Name Record is accessed is wrong. Otherwise the query should work.</t>
-  </si>
-  <si>
-    <t>It seems to only include a few records about the agent, when it should include things like the sex record, age record, and so on.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The ?agent a ?agentType does not make any sense to me on how or if they should work. hasNameRecord and hasAgeRecord are not found in the schema. 
-Not sure if the interpretation of time period as "date to date" is what was the intended output for the question. Also the ageRecord's temporal extent seems to be overwritten by the ?event's temporal extent. </t>
-  </si>
-  <si>
-    <t>Scored 0 because I belive startTime and endTime is not in the schema.</t>
-  </si>
-  <si>
-    <t>scored this a -1 because hasNameRecord does not appear to exist within the schema, and the type ConstructionProject appears to be hallucainted</t>
-  </si>
-  <si>
-    <t>recordedAt is used instead of atPlace to actually get an address.</t>
-  </si>
-  <si>
-    <t>hasNameRecord, hasAgeRecord, and hasSexRecord do not appear in the schema. The part that actually does the logic for port filtering is not included. I think that is a necessary part so I will score this a -1.</t>
-  </si>
-  <si>
-    <t>Also, The type SlaveRebellion seems to be hallucinated as it does not exist within the schema, but it also assumes this type is either an Agent or a subclass of AgentRecord.
-The hasNameRecord seems to be hallucinated.
-By using the &lt;proviedsParticipantRole&gt; predicate I think the model is treating the rebellion as an EventRecord, but it seems to hallucinate occuredAtLocation.
-I chose to rate this a -1 mainly because it hallucinated the SlaveRebellion type and that would require rewriting a good chunk of the query to get it to work correctly.</t>
-  </si>
-  <si>
-    <t>I am pretty sure the EnslavedIndividual, hasInterAgentRelationshipRecord Type is hallucinated. It seems that it mixed up isRelationshipTo and hasInterAgentRelationship because isRelationshipTo would actually return the InterAgentRelationshipRecord.
-The hasLocation predicate seems to be hallucinated. atPlace would probably work instead.
-I rated this a -1 because the hallucinations made the rest of the query logic require a good amount of editing to fix.</t>
-  </si>
-  <si>
-    <t>hasAgeRecord seems to be hallucinated.  
-:location, :start, and :end also seem to be hallucinated.
-I rate this a 0 becuase the hallucinations should be straight forward to fix.</t>
-  </si>
-  <si>
-    <t>Is the age stored in AgeRecord the age of an individual at death? Or at enslavement? 
-The hasAgeRecord seems to be hallucinated. That’s the only reason im rating this a 0, otherwise it would get a 1</t>
-  </si>
-  <si>
-    <t>OccupationRecord seems to be hallucinated. Also it seems to assume that the OccupationRecord occupation type  is the same as a skill category.
-hasInterAgentRelationshipRecord seems to be hallucinated. It also assumes the surname is the ethnicity.
-I presume this should actualy be done by accessing the race record. I am rating this a -1 because this query would need to be restructured a lot for it to work.</t>
-  </si>
-  <si>
-    <t>The MarriageEvent Type seems to be hallucinated. Also, I am not sure if :providesParticipantRole is allowed to point to more than one participantrolerecord. hasEthnicityRecord seems to be hallucinated. I am rating this a -1 because the hallucinations will likely require restructuring the query to fix.</t>
-  </si>
-  <si>
-    <t>hasOccupationRecord and hasSexRecord seems to be hallucinated. hasStartDate seems to be hallucinated. hasEconomic value also seems to be hallucianted. Fixing the hallucinations would likely requires changing the query significatly so I am rating this a -1.</t>
-  </si>
-  <si>
-    <t>isRelatedToShip and hasLifeOutcome seems to be hallucinated. I rated this -1 query would need changes before it is able to work.</t>
-  </si>
-  <si>
-    <t>hasNameRecord seems to be hallucinated. Xsd:start and xsd:end seems to be hallucinated. ?location is hallucianted. Fixing the hallucinations should not require that much change of the query structure. That why I am rating it a 0</t>
-  </si>
-  <si>
-    <t>The way the model gets the ?ownershipActivity seems to not make sense to me because it looks like you'd only get the event back and not any actual details. That’s why I am rating this a -1</t>
-  </si>
-  <si>
-    <t>Score E1</t>
-  </si>
-  <si>
-    <t>Notes E1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3101,31 +3138,13 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -3155,21 +3174,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3474,44 +3484,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="125.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="114.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="79.6328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="34.81640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="255.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="34.83203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="69.83203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="59.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3521,17 +3522,11 @@
       <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3541,17 +3536,11 @@
       <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3561,17 +3550,11 @@
       <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3581,17 +3564,11 @@
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3601,17 +3578,11 @@
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="2">
-        <v>0</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -3621,17 +3592,11 @@
       <c r="C7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3641,17 +3606,11 @@
       <c r="C8" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3661,17 +3620,11 @@
       <c r="C9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -3681,17 +3634,11 @@
       <c r="C10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -3701,17 +3648,11 @@
       <c r="C11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -3721,17 +3662,11 @@
       <c r="C12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -3741,17 +3676,11 @@
       <c r="C13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3761,17 +3690,11 @@
       <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -3781,17 +3704,11 @@
       <c r="C15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -3801,17 +3718,11 @@
       <c r="C16" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -3821,17 +3732,11 @@
       <c r="C17" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
@@ -3841,17 +3746,11 @@
       <c r="C18" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="2">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -3861,17 +3760,11 @@
       <c r="C19" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>76</v>
       </c>
@@ -3881,17 +3774,11 @@
       <c r="C20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D20" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -3901,17 +3788,11 @@
       <c r="C21" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D21" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
@@ -3921,17 +3802,11 @@
       <c r="C22" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="D22" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>88</v>
       </c>
@@ -3941,17 +3816,11 @@
       <c r="C23" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D23" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -3961,17 +3830,11 @@
       <c r="C24" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -3981,13 +3844,7 @@
       <c r="C25" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>99</v>
       </c>
     </row>

--- a/Enslaved/Original/NEN/Results/Enslaved_NEN_GPT4o_results.xlsx
+++ b/Enslaved/Original/NEN/Results/Enslaved_NEN_GPT4o_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisdavisj/knowledge-conceptualization-graphrag/util-scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chrisdavisj/knowledge-conceptualization-graphrag/Enslaved/Original/NEN/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666917BA-9A6B-CE48-93EB-D31C7FD5D1EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4107D749-1680-5C40-9F8B-AC4DBD4F7952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="29400" windowHeight="17080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="119">
   <si>
     <t>CQ</t>
   </si>
@@ -3120,12 +3120,113 @@
     "error": null
 }</t>
   </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Almost valid SPARQL Query
+ - some mappings are incorrect
+ - requires effort and ontology knowledge to fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - hallucinated literacy status relationship
+ - if fixed, might adequately answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - Adequately answers the cq
+ - All Mapping looks good</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - hop issue for name ( missed one hop) 
+ - All Mapping looks good with fuzziness on location
+ - if fixed, adequately answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - All Mapping looks good with fuzziness on location and population
+ - if fixed, might adequately answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - Adequately answers the cq
+ - All Mapping looks good with fuzziness on location
+ - if fixed, adequately answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - All Mapping looks good with fuzziness on location
+ - if fixed, adequately answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - misinterpretted one relationship
+ - All Mapping else looks good 
+ - if fixed, adequately answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - Adequately answers the cq
+ - All Mapping looks good with fuzziness on location
+ - unnecessary complexity but still works
+ - if fixed, adequately answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Almost valid SPARQL Query
+ - hop issues on hasName (missing one hop)
+ - All Mapping else looks good
+ - unnecessary complexity but still works
+ - if fixed, adequately answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query 
+ - All Mapping looks good with fuzziness on location
+ - if fixed, adequately answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - All valid Mapping
+ - results not answering the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - misinterpretted one relationship mapping
+ - unnecessary complexity
+ - doesn’t answer CQ and requires effort</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Almost valid SPARQL Query
+ - hop issues on hasName (missing one hop)
+ - All Mapping else looks good with fuzziness on location
+ - if fixed, adequately answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Valid SPARQL Query
+ - All valid Mapping
+ - results not completely answering the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Almost valid SPARQL Query
+ - some relationships are misinterpreted externalReferent, ethnicity 
+ - if fixed can sufficiently answer the CQ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Almost valid SPARQL Query
+ - some relationships are misinterpreted economic Value
+ - ethnicity not mapped
+ - if fixed can sufficiently answer the CQ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3137,6 +3238,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3147,7 +3262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3170,16 +3285,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3484,10 +3616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3496,9 +3628,10 @@
     <col min="2" max="2" width="36.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="69.83203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="59.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3511,8 +3644,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>101</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -3525,8 +3664,14 @@
       <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3539,8 +3684,14 @@
       <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -3553,8 +3704,14 @@
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
@@ -3567,8 +3724,14 @@
       <c r="D5" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -3581,8 +3744,14 @@
       <c r="D6" s="2" t="s">
         <v>23</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="7" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
@@ -3595,8 +3764,14 @@
       <c r="D7" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>104</v>
+      </c>
     </row>
-    <row r="8" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -3609,8 +3784,14 @@
       <c r="D8" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="9" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -3623,8 +3804,14 @@
       <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="10" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -3637,8 +3824,14 @@
       <c r="D10" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>107</v>
+      </c>
     </row>
-    <row r="11" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -3651,8 +3844,14 @@
       <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="12" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -3665,8 +3864,14 @@
       <c r="D12" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>112</v>
+      </c>
     </row>
-    <row r="13" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>48</v>
       </c>
@@ -3679,8 +3884,14 @@
       <c r="D13" s="2" t="s">
         <v>51</v>
       </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>111</v>
+      </c>
     </row>
-    <row r="14" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>52</v>
       </c>
@@ -3693,8 +3904,14 @@
       <c r="D14" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="15" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>56</v>
       </c>
@@ -3707,8 +3924,14 @@
       <c r="D15" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>114</v>
+      </c>
     </row>
-    <row r="16" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>60</v>
       </c>
@@ -3721,8 +3944,14 @@
       <c r="D16" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>110</v>
+      </c>
     </row>
-    <row r="17" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>64</v>
       </c>
@@ -3735,8 +3964,14 @@
       <c r="D17" s="2" t="s">
         <v>67</v>
       </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="18" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>68</v>
       </c>
@@ -3749,8 +3984,14 @@
       <c r="D18" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="19" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>72</v>
       </c>
@@ -3763,8 +4004,14 @@
       <c r="D19" s="2" t="s">
         <v>75</v>
       </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>116</v>
+      </c>
     </row>
-    <row r="20" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>76</v>
       </c>
@@ -3777,8 +4024,14 @@
       <c r="D20" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="E20">
+        <v>-1</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="21" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>80</v>
       </c>
@@ -3791,8 +4044,14 @@
       <c r="D21" s="2" t="s">
         <v>83</v>
       </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
-    <row r="22" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>84</v>
       </c>
@@ -3805,8 +4064,14 @@
       <c r="D22" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>118</v>
+      </c>
     </row>
-    <row r="23" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>88</v>
       </c>
@@ -3819,8 +4084,14 @@
       <c r="D23" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="E23">
+        <v>-1</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>113</v>
+      </c>
     </row>
-    <row r="24" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>92</v>
       </c>
@@ -3833,8 +4104,14 @@
       <c r="D24" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>108</v>
+      </c>
     </row>
-    <row r="25" spans="1:4" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>96</v>
       </c>
@@ -3846,6 +4123,12 @@
       </c>
       <c r="D25" s="2" t="s">
         <v>99</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
